--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFD2E00-1D95-4CB6-B2F5-A58CCA799989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D7819-7DE1-4C38-9774-A20E0C91211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -454,8 +478,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1494692</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -470,8 +494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050073" y="205154"/>
-          <a:ext cx="3056792" cy="4352192"/>
+          <a:off x="1869830" y="205154"/>
+          <a:ext cx="2872154" cy="4794738"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -594,10 +618,10 @@
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1677865</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>879</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -612,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1918189" y="51288"/>
-          <a:ext cx="3371849" cy="4637943"/>
+          <a:off x="1737946" y="51288"/>
+          <a:ext cx="3133871" cy="4948604"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -981,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,4 +1391,554 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCDAB9-A4C2-4C08-A79C-61A852AA71B3}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="G1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <f>(C4-C3)/C3</f>
+        <v>0.31914893617021278</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3:E34">_xlfn.REDUCE(1,D3:D25,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&gt;0,_xlfn.VSTACK(_xlpm.a,_xlpm.a*(1+_xlpm.v)),1)))</f>
+        <v>1</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1.558139534883721</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D25" si="0">(C5-C4)/C4</f>
+        <v>0.59677419354838712</v>
+      </c>
+      <c r="E4">
+        <v>1.4423076923076923</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="E5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="E6">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="24">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="24">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="E8">
+        <v>1.6140109890109891</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="24">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E9">
+        <v>1.2533333333333334</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="24">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-3.6363636363636362E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.8076923076923077</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-9.433962264150943E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.0851063829787233</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-1.9047619047619049E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.5650572831423895</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-2.9126213592233011E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.2153191489361703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="E14">
+        <v>1.7528641571194761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.2142857142857142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="25">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="26">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="E16">
+        <v>1.7513736263736261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="26">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.23749999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.3599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="26">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-1.6393442622950821E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.9615384615384615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="25">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="26">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.0294117647058822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="26">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-5.4545454545454543E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.4847285067873301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="25">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="26">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="E21">
+        <v>1.1529411764705881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E22">
+        <v>1.6628959276018098</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="E23">
+        <v>1.1519607843137254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.6614819004524886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.2901960784313724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="22">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>1.8608597285067872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>1.1170212765957446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1.6110883797054008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1.2510638297872341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1.8044189852700487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>1.2499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1.802884615384615</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1.3999999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>2.0192307692307687</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D7819-7DE1-4C38-9774-A20E0C91211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C288D-138B-4AC9-9B30-2713798A4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,6 +381,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCDAB9-A4C2-4C08-A79C-61A852AA71B3}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,42 +1408,58 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="29"/>
-      <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="K1" s="7" t="s">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="8">
+        <v>47</v>
+      </c>
+      <c r="D2" s="32">
+        <f>(C3-C2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="33">
+        <f>1+D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="33">
+        <f>IF(E2&lt;1,1,F1*E2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14">
         <v>45292</v>
       </c>
@@ -1452,24 +1470,28 @@
         <f>(C4-C3)/C3</f>
         <v>0.31914893617021278</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3:E34">_xlfn.REDUCE(1,D3:D25,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&gt;0,_xlfn.VSTACK(_xlpm.a,_xlpm.a*(1+_xlpm.v)),1)))</f>
-        <v>1</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="33">
+        <f t="shared" ref="E3:E26" si="0">1+D3</f>
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="F3" s="33">
+        <f t="shared" ref="F3:F26" si="1">IF(E3&lt;1,1,F2*E3)</f>
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27">
+      <c r="I3" s="27">
         <v>1.558139534883721</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="11"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14">
         <v>45293</v>
       </c>
@@ -1477,26 +1499,31 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D25" si="0">(C5-C4)/C4</f>
+        <f t="shared" ref="D4:D25" si="2">(C5-C4)/C4</f>
         <v>0.59677419354838712</v>
       </c>
-      <c r="E4">
-        <v>1.4423076923076923</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="33">
+        <f t="shared" si="0"/>
+        <v>1.596774193548387</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" si="1"/>
+        <v>2.1063829787234041</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="27">
+      <c r="I4" s="27">
         <v>-0.56565656565656564</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>45294</v>
       </c>
@@ -1504,22 +1531,27 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.56565656565656564</v>
       </c>
-      <c r="E5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F5"/>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.43434343434343436</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11"/>
+      <c r="I5"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23">
         <v>45295</v>
       </c>
@@ -1527,22 +1559,27 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20930232558139536</v>
       </c>
-      <c r="E6">
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="F6"/>
+      <c r="E6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2093023255813953</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2093023255813953</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11"/>
+      <c r="I6"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="11"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23">
         <v>45296</v>
       </c>
@@ -1550,18 +1587,34 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="E7">
-        <v>1.1190476190476191</v>
-      </c>
-      <c r="F7"/>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>1.5116279069767442</v>
+      </c>
       <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="6" t="str" cm="1">
+        <f t="array" ref="H7:I9">_xlfn.LET(_xlpm.d,_xlfn.VSTACK(C3,C3:C26),
+_xlpm.dm,_xlfn.DROP(_xlpm.d,1),
+_xlpm.q,_xlfn.DROP(1+(_xlpm.dm-_xlpm.d)/_xlpm.d,-1),
+_xlpm.z, MAX(_xlfn.SCAN(1,_xlpm.q,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&gt;1,_xlfn.IFNA(_xlpm.a*_xlpm.v,1),1))))-1,
+_xlpm.zz, MIN(_xlfn.SCAN(1,_xlpm.q,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&lt;1,_xlfn.IFNA(_xlpm.a*_xlpm.v,1),1))))-1,
+_xlfn.VSTACK({"Group","Percent"},_xlfn.HSTACK(_xlfn.VSTACK("Increase","Decrease"),_xlfn.VSTACK(_xlpm.z,_xlpm.zz)))
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="I7" s="20" t="str">
+        <v>Percent</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23">
         <v>45297</v>
       </c>
@@ -1569,22 +1622,31 @@
         <v>65</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1076923076923077</v>
       </c>
-      <c r="E8">
-        <v>1.6140109890109891</v>
-      </c>
-      <c r="F8"/>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1076923076923078</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="1"/>
+        <v>1.6744186046511629</v>
+      </c>
       <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="H8" s="12" t="str">
+        <v>Increase</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1.558139534883721</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23">
         <v>45298</v>
       </c>
@@ -1592,22 +1654,31 @@
         <v>72</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52777777777777779</v>
       </c>
-      <c r="E9">
-        <v>1.2533333333333334</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="5"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="1"/>
+        <v>2.558139534883721</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="12" t="str">
+        <v>Decrease</v>
+      </c>
+      <c r="I9" s="27">
+        <v>-0.56565656565656564</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23">
         <v>45299</v>
       </c>
@@ -1615,22 +1686,27 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.6363636363636362E-2</v>
       </c>
-      <c r="E10">
-        <v>1.8076923076923077</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="5"/>
-      <c r="H10"/>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>45300</v>
       </c>
@@ -1638,22 +1714,27 @@
         <v>106</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.433962264150943E-3</v>
       </c>
-      <c r="E11">
-        <v>1.0851063829787233</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="5"/>
-      <c r="H11"/>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>45301</v>
       </c>
@@ -1661,23 +1742,28 @@
         <v>105</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.9047619047619049E-2</v>
       </c>
-      <c r="E12">
-        <v>1.5650572831423895</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="5"/>
-      <c r="H12"/>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98095238095238091</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="5"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>45302</v>
       </c>
@@ -1685,14 +1771,19 @@
         <v>103</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.9126213592233011E-2</v>
       </c>
-      <c r="E13">
-        <v>1.2153191489361703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>45303</v>
       </c>
@@ -1700,14 +1791,19 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.15</v>
       </c>
-      <c r="E14">
-        <v>1.7528641571194761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="16">
         <v>45304</v>
@@ -1716,14 +1812,19 @@
         <v>85</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>(C16-C15)/C15</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="E15">
-        <v>1.2142857142857142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0588235294117647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="25">
         <v>45305</v>
@@ -1732,14 +1833,19 @@
         <v>90</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="E16">
-        <v>1.7513736263736261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="25">
         <v>45306</v>
@@ -1748,14 +1854,19 @@
         <v>80</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.23749999999999999</v>
       </c>
-      <c r="E17">
-        <v>1.3599999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="25">
         <v>45307</v>
@@ -1764,14 +1875,19 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.6393442622950821E-2</v>
       </c>
-      <c r="E18">
-        <v>1.9615384615384615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="25">
         <v>45308</v>
@@ -1780,14 +1896,19 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="E19">
-        <v>1.0294117647058822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="25">
         <v>45309</v>
@@ -1796,14 +1917,19 @@
         <v>55</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.4545454545454543E-2</v>
       </c>
-      <c r="E20">
-        <v>1.4847285067873301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="25">
         <v>45310</v>
@@ -1812,14 +1938,19 @@
         <v>52</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.44230769230769229</v>
       </c>
-      <c r="E21">
-        <v>1.1529411764705881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>1.4423076923076923</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="1"/>
+        <v>1.4423076923076923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>45311</v>
@@ -1828,15 +1959,20 @@
         <v>75</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="E22">
-        <v>1.6628959276018098</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="1"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>45312</v>
@@ -1845,14 +1981,19 @@
         <v>84</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="E23">
-        <v>1.1519607843137254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="1"/>
+        <v>1.8076923076923077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>45313</v>
       </c>
@@ -1860,14 +2001,19 @@
         <v>94</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="E24">
-        <v>1.6614819004524886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E24" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0851063829787233</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="1"/>
+        <v>1.9615384615384615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>45314</v>
       </c>
@@ -1875,68 +2021,38 @@
         <v>102</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="E25">
-        <v>1.2901960784313724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E25" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0294117647058822</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="1"/>
+        <v>2.0192307692307687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>45315</v>
       </c>
       <c r="C26" s="22">
         <v>105</v>
       </c>
-      <c r="E26">
-        <v>1.8608597285067872</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E27">
-        <v>1.1170212765957446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E28">
-        <v>1.6110883797054008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E29">
-        <v>1.2510638297872341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E30">
-        <v>1.8044189852700487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E31">
-        <v>1.2499999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E32">
-        <v>1.802884615384615</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33">
-        <v>1.3999999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34">
+      <c r="E26" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="1"/>
         <v>2.0192307692307687</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C288D-138B-4AC9-9B30-2713798A4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BEA56-5525-4D23-A9F6-21842312CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCDAB9-A4C2-4C08-A79C-61A852AA71B3}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,8 +1726,18 @@
         <v>1</v>
       </c>
       <c r="G11"/>
-      <c r="H11" s="5"/>
-      <c r="I11"/>
+      <c r="H11" s="6" t="str" cm="1">
+        <f t="array" ref="H11:I13">_xlfn.LET(_xlpm.d,_xlfn.VSTACK(C3,C3:C26),
+_xlpm.q,_xlfn.DROP(1+(_xlfn.DROP(_xlpm.d,1)-_xlpm.d)/_xlpm.d,-1),
+_xlpm.z, MAX(_xlfn.SCAN(1,_xlpm.q,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&gt;1,_xlfn.IFNA(_xlpm.a*_xlpm.v,1),1))))-1,
+_xlpm.zz, MIN(_xlfn.SCAN(1,_xlpm.q,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&lt;1,_xlfn.IFNA(_xlpm.a*_xlpm.v,1),1))))-1,
+_xlfn.VSTACK({"Group","Percent"},_xlfn.HSTACK(_xlfn.VSTACK("Increase","Decrease"),_xlfn.VSTACK(_xlpm.z,_xlpm.zz)))
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="I11" s="20" t="str">
+        <v>Percent</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -1754,8 +1764,12 @@
         <v>1</v>
       </c>
       <c r="G12"/>
-      <c r="H12" s="5"/>
-      <c r="I12"/>
+      <c r="H12" s="12" t="str">
+        <v>Increase</v>
+      </c>
+      <c r="I12" s="27">
+        <v>1.558139534883721</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -1781,6 +1795,12 @@
       <c r="F13" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <v>Decrease</v>
+      </c>
+      <c r="I13" s="27">
+        <v>-0.56565656565656564</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">

--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BEA56-5525-4D23-A9F6-21842312CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA0965-691F-4094-8CE3-FF2D15FA7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -96,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +124,14 @@
       <color theme="1"/>
       <name val="Corbel"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Corbel"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,10 +317,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +380,8 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,10 +394,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,12 +1021,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="629" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5D2FD712-6E10-4BD6-8A77-36FF06E2C73D}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,16 +1067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="31"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1389,9 +1434,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{8F7DFD66-AB40-4AFB-8316-356A9E4C7D2E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1399,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCDAB9-A4C2-4C08-A79C-61A852AA71B3}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A18" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,20 +1463,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="31"/>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="33"/>
       <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1440,15 +1488,15 @@
       <c r="C2" s="8">
         <v>47</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="28">
         <f>(C3-C2)/C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="29">
         <f>1+D2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="29">
         <f>IF(E2&lt;1,1,F1*E2)</f>
         <v>1</v>
       </c>
@@ -1470,11 +1518,11 @@
         <f>(C4-C3)/C3</f>
         <v>0.31914893617021278</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="29">
         <f t="shared" ref="E3:E26" si="0">1+D3</f>
         <v>1.3191489361702127</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <f t="shared" ref="F3:F26" si="1">IF(E3&lt;1,1,F2*E3)</f>
         <v>1.3191489361702127</v>
       </c>
@@ -1502,11 +1550,11 @@
         <f t="shared" ref="D4:D25" si="2">(C5-C4)/C4</f>
         <v>0.59677419354838712</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="29">
         <f t="shared" si="0"/>
         <v>1.596774193548387</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="29">
         <f t="shared" si="1"/>
         <v>2.1063829787234041</v>
       </c>
@@ -1534,11 +1582,11 @@
         <f t="shared" si="2"/>
         <v>-0.56565656565656564</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
         <v>0.43434343434343436</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1562,11 +1610,11 @@
         <f t="shared" si="2"/>
         <v>0.20930232558139536</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="29">
         <f t="shared" si="0"/>
         <v>1.2093023255813953</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="29">
         <f t="shared" si="1"/>
         <v>1.2093023255813953</v>
       </c>
@@ -1590,11 +1638,11 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
         <v>1.5116279069767442</v>
       </c>
@@ -1625,11 +1673,11 @@
         <f t="shared" si="2"/>
         <v>0.1076923076923077</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>1.1076923076923078</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="29">
         <f t="shared" si="1"/>
         <v>1.6744186046511629</v>
       </c>
@@ -1657,11 +1705,11 @@
         <f t="shared" si="2"/>
         <v>0.52777777777777779</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>1.5277777777777777</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <f t="shared" si="1"/>
         <v>2.558139534883721</v>
       </c>
@@ -1689,11 +1737,11 @@
         <f t="shared" si="2"/>
         <v>-3.6363636363636362E-2</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>0.96363636363636362</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1717,11 +1765,11 @@
         <f t="shared" si="2"/>
         <v>-9.433962264150943E-3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>0.99056603773584906</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1755,11 +1803,11 @@
         <f t="shared" si="2"/>
         <v>-1.9047619047619049E-2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="29">
         <f t="shared" si="0"/>
         <v>0.98095238095238091</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1788,11 +1836,11 @@
         <f t="shared" si="2"/>
         <v>-2.9126213592233011E-2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <f t="shared" si="0"/>
         <v>0.970873786407767</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1814,11 +1862,11 @@
         <f t="shared" si="2"/>
         <v>-0.15</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1835,11 +1883,11 @@
         <f>(C16-C15)/C15</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <f t="shared" si="0"/>
         <v>1.0588235294117647</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="29">
         <f t="shared" si="1"/>
         <v>1.0588235294117647</v>
       </c>
@@ -1856,11 +1904,11 @@
         <f t="shared" si="2"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1877,11 +1925,11 @@
         <f t="shared" si="2"/>
         <v>-0.23749999999999999</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <f t="shared" si="0"/>
         <v>0.76249999999999996</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1898,11 +1946,11 @@
         <f t="shared" si="2"/>
         <v>-1.6393442622950821E-2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f t="shared" si="0"/>
         <v>0.98360655737704916</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1919,11 +1967,11 @@
         <f t="shared" si="2"/>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="29">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1940,11 +1988,11 @@
         <f t="shared" si="2"/>
         <v>-5.4545454545454543E-2</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <f t="shared" si="0"/>
         <v>0.94545454545454544</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1961,11 +2009,11 @@
         <f t="shared" si="2"/>
         <v>0.44230769230769229</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="29">
         <f t="shared" si="0"/>
         <v>1.4423076923076923</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="29">
         <f t="shared" si="1"/>
         <v>1.4423076923076923</v>
       </c>
@@ -1982,11 +2030,11 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="29">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="29">
         <f t="shared" si="1"/>
         <v>1.6153846153846154</v>
       </c>
@@ -2004,11 +2052,11 @@
         <f t="shared" si="2"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="29">
         <f t="shared" si="0"/>
         <v>1.1190476190476191</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>1.8076923076923077</v>
       </c>
@@ -2024,11 +2072,11 @@
         <f t="shared" si="2"/>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <f t="shared" si="0"/>
         <v>1.0851063829787233</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="29">
         <f t="shared" si="1"/>
         <v>1.9615384615384615</v>
       </c>
@@ -2044,11 +2092,11 @@
         <f t="shared" si="2"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="29">
         <f t="shared" si="0"/>
         <v>1.0294117647058822</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="29">
         <f t="shared" si="1"/>
         <v>2.0192307692307687</v>
       </c>
@@ -2060,11 +2108,11 @@
       <c r="C26" s="22">
         <v>105</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="29">
         <f t="shared" si="1"/>
         <v>2.0192307692307687</v>
       </c>
@@ -2077,4 +2125,824 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="E1"/>
+      <c r="G1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="K1" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1.558139534883721</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="24">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="24">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="24">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6" t="str" cm="1">
+        <f t="array" ref="E9:F11">_xlfn.LET(
+    _xlpm.s, C3:C26,
+    _xlfn.VSTACK(
+        {"Group","Percent"},
+        _xlfn.HSTACK(
+            {"Increase";"Decrease"},
+            _xlfn.TAKE(
+                _xlfn._xlws.SORT(
+                    _xlpm.s /
+                        _xlfn.SCAN(
+                            ,
+                            _xlpm.s,
+                            _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+                                _xlfn.LET(
+                                    _xlpm.b, _xlfn.TAKE(INDEX(_xlpm.s, 1):_xlpm.v, -3),
+                                    IF(_xlfn.XOR(_xlfn.DROP(_xlpm.b, 1) &gt; _xlfn.DROP(_xlpm.b, -1)), _xlfn.SINGLE(+_xlfn.TAKE(_xlpm.b, -2)), _xlpm.a)
+                                )
+                            )
+                        ) - 1
+                ),
+                {-1;1}
+            )
+        )
+    )
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <v>Percent</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="24">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12" t="str">
+        <v>Increase</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.558139534883721</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12" t="str">
+        <v>Decrease</v>
+      </c>
+      <c r="F11" s="27">
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="E15" s="35" cm="1">
+        <f t="array" ref="E15:E38">_xlfn.SCAN(
+                            ,
+                            C3:C26,
+                            _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+                                _xlfn.LET(
+                                    _xlpm.b, _xlfn.TAKE(INDEX(C3:C26, 1):_xlpm.v, -3),
+                                    IF(_xlfn.XOR(_xlfn.DROP(_xlpm.b, 1) &gt; _xlfn.DROP(_xlpm.b, -1)), _xlfn.SINGLE(+_xlfn.TAKE(_xlpm.b, -2)), _xlpm.a)
+                                )
+                            )
+                        )</f>
+        <v>47</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15:F38" xml:space="preserve"> C3:C26/_xlfn.ANCHORARRAY(E15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="25">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="26">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="35">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16:G38" si="0">F16-1</f>
+        <v>0.31914893617021267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="26">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="35">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>2.1063829787234041</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1063829787234041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="26">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="35">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <v>0.43434343434343436</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.56565656565656564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="25">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="26">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="35">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>1.2093023255813953</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20930232558139528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="26">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="35">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>1.5116279069767442</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="25">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="26">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="35">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>1.6744186046511629</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67441860465116288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="35">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>2.558139534883721</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.558139534883721</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="35">
+        <v>110</v>
+      </c>
+      <c r="F23">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.6363636363636376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="35">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.5454545454545414E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="35">
+        <v>110</v>
+      </c>
+      <c r="F25">
+        <v>0.9363636363636364</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.3636363636363602E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="22">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="35">
+        <v>110</v>
+      </c>
+      <c r="F26">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E27" s="35">
+        <v>110</v>
+      </c>
+      <c r="F27">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E28" s="35">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E29" s="35">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="35">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.32222222222222219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31" s="35">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32" s="35">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.38888888888888884</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="35">
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.42222222222222228</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="35">
+        <v>52</v>
+      </c>
+      <c r="F34">
+        <v>1.4423076923076923</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44230769230769229</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="35">
+        <v>52</v>
+      </c>
+      <c r="F35">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="35">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>1.8076923076923077</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80769230769230771</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="35">
+        <v>52</v>
+      </c>
+      <c r="F37">
+        <v>1.9615384615384615</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.96153846153846145</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="35">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>2.0192307692307692</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" cm="1">
+        <f t="array" ref="E40:E63">_xlfn.SCAN(
+                            ,
+                            C3:C26,
+                            _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+                                _xlfn.LET(
+                                    _xlpm.b, _xlfn.TAKE(INDEX(C3:C26, 1):_xlpm.v, -3),
+                                    _xlfn.TEXTJOIN(",",,_xlpm.b)
+                                )
+                            )
+                        )</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <v>47,62</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <v>47,62,99</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <v>62,99,43</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <v>99,43,52</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <v>43,52,65</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <v>52,65,72</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <v>65,72,110</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <v>72,110,106</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <v>110,106,105</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <v>106,105,103</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <v>105,103,100</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" t="str">
+        <v>103,100,85</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" t="str">
+        <v>100,85,90</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <v>85,90,80</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <v>90,80,61</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" t="str">
+        <v>80,61,60</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <v>61,60,55</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" t="str">
+        <v>60,55,52</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" t="str">
+        <v>55,52,75</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" t="str">
+        <v>52,75,84</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" t="str">
+        <v>75,84,94</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" t="str">
+        <v>84,94,102</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <v>94,102,105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{B0805BD1-C71D-41AB-8A4E-7FC8E908C30E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA0965-691F-4094-8CE3-FF2D15FA7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADFE91-BB59-4A2C-A101-0318678966E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -2131,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -2945,4 +2947,405 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862630FE-0C64-4F68-B55D-7D50567D4860}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="E1"/>
+      <c r="G1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="K1" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1.558139534883721</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="24">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="24">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="24">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="24">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="25">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="26">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="str" cm="1">
+        <f t="array" ref="E16:F17">_xlfn.LET(_xlpm.a,DAY(B3:B26),_xlpm.b,C3:C26,_xlpm.c,_xlpm.b/_xlfn.IFNA(_xlfn.XLOOKUP(_xlpm.a-_xlfn.TOROW(_xlpm.a),_xlpm.a,_xlpm.b),_xlpm.b)-1,_xlfn.HSTACK({"Inc";"Dec"}&amp;"rease",_xlfn.VSTACK(MAX(_xlpm.c),MIN(_xlpm.c))))</f>
+        <v>Increase</v>
+      </c>
+      <c r="F16">
+        <v>1.558139534883721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="26">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="str">
+        <v>Decrease</v>
+      </c>
+      <c r="F17">
+        <v>-0.56565656565656564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="26">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="25">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="26">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="26">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="25">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="26">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="22">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{87AF2F03-ACB9-464C-91E9-6CB7EF123652}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADFE91-BB59-4A2C-A101-0318678966E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BD925-D4A6-4516-9D52-8A05E249C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_b">'Alt1'!$F$43:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
@@ -137,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,6 +408,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2133,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2744,7 @@
         <v>-0.38888888888888884</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" s="35">
         <v>90</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>-0.42222222222222228</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E34" s="35">
         <v>52</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>0.44230769230769229</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E35" s="35">
         <v>52</v>
       </c>
@@ -2770,7 +2780,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E36" s="35">
         <v>52</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>0.80769230769230771</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E37" s="35">
         <v>52</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>0.96153846153846145</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E38" s="35">
         <v>52</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>1.0192307692307692</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E40" cm="1">
         <f t="array" ref="E40:E63">_xlfn.SCAN(
                             ,
@@ -2821,117 +2831,152 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E41" t="str">
         <v>47,62</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E42" t="str">
         <v>47,62,99</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E43" t="str">
         <v>62,99,43</v>
       </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F43" t="str" cm="1">
+        <f t="array" ref="F43:F45">_xlfn.TEXTSPLIT(E43,,",")</f>
+        <v>62</v>
+      </c>
+      <c r="G43" s="5" t="str" cm="1">
+        <f t="array" ref="G43:G44">_xlfn.DROP(_b,1)</f>
+        <v>99</v>
+      </c>
+      <c r="H43" t="str" cm="1">
+        <f t="array" ref="H43:H44">_xlfn.DROP(_b,-1)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E44" t="str">
         <v>99,43,52</v>
       </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <v>99</v>
+      </c>
+      <c r="G44" s="5" t="str">
+        <v>43</v>
+      </c>
+      <c r="H44" t="str">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E45" t="str">
         <v>43,52,65</v>
       </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E46" t="str">
         <v>52,65,72</v>
       </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="5" t="b" cm="1">
+        <f t="array" ref="G46:G47">_xlfn.ANCHORARRAY(G43)&gt;_xlfn.ANCHORARRAY(H43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E47" t="str">
         <v>65,72,110</v>
       </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E48" t="str">
         <v>72,110,106</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" t="str">
         <v>110,106,105</v>
       </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="36" t="b">
+        <f>_xlfn.XOR(_xlfn.ANCHORARRAY(G46))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" t="str">
         <v>106,105,103</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" t="str">
         <v>105,103,100</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" t="str">
         <v>103,100,85</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" t="str">
         <v>100,85,90</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" t="str">
         <v>85,90,80</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" t="str">
         <v>90,80,61</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" t="str">
         <v>80,61,60</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" t="str">
         <v>61,60,55</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" t="str">
         <v>60,55,52</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" t="str">
         <v>55,52,75</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" t="str">
         <v>52,75,84</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" t="str">
         <v>75,84,94</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" t="str">
         <v>84,94,102</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" t="str">
         <v>94,102,105</v>
       </c>
@@ -2953,7 +2998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862630FE-0C64-4F68-B55D-7D50567D4860}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BD925-D4A6-4516-9D52-8A05E249C9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024DA1A-0A8B-4167-9C4E-BC8994D212E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2902,7 +2902,7 @@
         <v>72,110,106</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" t="str">
         <v>110,106,105</v>
       </c>
@@ -2911,72 +2911,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" t="str">
         <v>106,105,103</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" t="str">
         <v>105,103,100</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E52" t="str">
         <v>103,100,85</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" t="str">
         <v>100,85,90</v>
       </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F53" t="str" cm="1">
+        <f t="array" ref="F53:F55">_xlfn.TEXTSPLIT(E53,,",")</f>
+        <v>100</v>
+      </c>
+      <c r="G53" s="5" t="str" cm="1">
+        <f t="array" ref="G53:G54">_xlfn.DROP(F53:F55,1)</f>
+        <v>85</v>
+      </c>
+      <c r="H53" t="str" cm="1">
+        <f t="array" ref="H53:H54">_xlfn.DROP(F53:F55,-1)</f>
+        <v>100</v>
+      </c>
+      <c r="I53" t="str" cm="1">
+        <f t="array" ref="I53">_xlfn.SINGLE(+_xlfn.TAKE(_xlfn.ANCHORARRAY(F53),-2))</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E54" t="str">
         <v>85,90,80</v>
       </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <v>85</v>
+      </c>
+      <c r="G54" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="H54" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E55" t="str">
         <v>90,80,61</v>
       </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E56" t="str">
         <v>80,61,60</v>
       </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="5" t="b" cm="1">
+        <f t="array" ref="G56:G57">_xlfn.ANCHORARRAY(G53)&gt;_xlfn.ANCHORARRAY(H53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E57" t="str">
         <v>61,60,55</v>
       </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E58" t="str">
         <v>60,55,52</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E59" t="str">
         <v>55,52,75</v>
       </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="36" t="b">
+        <f>_xlfn.XOR(_xlfn.ANCHORARRAY(G56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E60" t="str">
         <v>52,75,84</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E61" t="str">
         <v>75,84,94</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E62" t="str">
         <v>84,94,102</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E63" t="str">
         <v>94,102,105</v>
       </c>

--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024DA1A-0A8B-4167-9C4E-BC8994D212E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1B717-BA5D-410C-BEAA-C3E230179E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_a" localSheetId="3">'Alt2'!$E$19:$E$42</definedName>
     <definedName name="_b">'Alt1'!$F$43:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
@@ -101,6 +102,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0;\-0;0;@"/>
+    <numFmt numFmtId="167" formatCode="0.000;\-0.000;0.000;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +416,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1047,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="629" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="189" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2143,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3035,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862630FE-0C64-4F68-B55D-7D50567D4860}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3302,14 +3314,23 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="str" cm="1">
-        <f t="array" ref="E16:F17">_xlfn.LET(_xlpm.a,DAY(B3:B26),_xlpm.b,C3:C26,_xlpm.c,_xlpm.b/_xlfn.IFNA(_xlfn.XLOOKUP(_xlpm.a-_xlfn.TOROW(_xlpm.a),_xlpm.a,_xlpm.b),_xlpm.b)-1,_xlfn.HSTACK({"Inc";"Dec"}&amp;"rease",_xlfn.VSTACK(MAX(_xlpm.c),MIN(_xlpm.c))))</f>
+        <f t="array" ref="E16:F17">_xlfn.LET(
+    _xlpm.a, DAY(B3:B26),
+    _xlpm.b, C3:C26,
+    _xlpm.c, _xlpm.b / _xlfn.IFNA(_xlfn.XLOOKUP(_xlpm.a - _xlfn.TOROW(_xlpm.a), _xlpm.a, _xlpm.b), _xlpm.b) -
+        1,
+    _xlfn.HSTACK(
+        {"Inc";"Dec"} &amp; "rease",
+        _xlfn.VSTACK(MAX(_xlpm.c), MIN(_xlpm.c))
+    )
+)</f>
         <v>Increase</v>
       </c>
       <c r="F16">
         <v>1.558139534883721</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="25">
         <v>45306</v>
@@ -3325,7 +3346,7 @@
         <v>-0.56565656565656564</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="25">
         <v>45307</v>
@@ -3336,7 +3357,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="25">
         <v>45308</v>
@@ -3345,9 +3366,85 @@
         <v>60</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E19" s="37" cm="1">
+        <f t="array" ref="E19:E42">DAY(B3:B26)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19:AC42">_a-_xlfn.TOROW(_a)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <v>-3</v>
+      </c>
+      <c r="J19">
+        <v>-4</v>
+      </c>
+      <c r="K19">
+        <v>-5</v>
+      </c>
+      <c r="L19">
+        <v>-6</v>
+      </c>
+      <c r="M19">
+        <v>-7</v>
+      </c>
+      <c r="N19">
+        <v>-8</v>
+      </c>
+      <c r="O19">
+        <v>-9</v>
+      </c>
+      <c r="P19">
+        <v>-10</v>
+      </c>
+      <c r="Q19">
+        <v>-11</v>
+      </c>
+      <c r="R19">
+        <v>-12</v>
+      </c>
+      <c r="S19">
+        <v>-13</v>
+      </c>
+      <c r="T19">
+        <v>-14</v>
+      </c>
+      <c r="U19">
+        <v>-15</v>
+      </c>
+      <c r="V19">
+        <v>-16</v>
+      </c>
+      <c r="W19">
+        <v>-17</v>
+      </c>
+      <c r="X19">
+        <v>-18</v>
+      </c>
+      <c r="Y19">
+        <v>-19</v>
+      </c>
+      <c r="Z19">
+        <v>-20</v>
+      </c>
+      <c r="AA19">
+        <v>-21</v>
+      </c>
+      <c r="AB19">
+        <v>-22</v>
+      </c>
+      <c r="AC19">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="25">
         <v>45309</v>
@@ -3356,9 +3453,83 @@
         <v>55</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="37">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-2</v>
+      </c>
+      <c r="J20">
+        <v>-3</v>
+      </c>
+      <c r="K20">
+        <v>-4</v>
+      </c>
+      <c r="L20">
+        <v>-5</v>
+      </c>
+      <c r="M20">
+        <v>-6</v>
+      </c>
+      <c r="N20">
+        <v>-7</v>
+      </c>
+      <c r="O20">
+        <v>-8</v>
+      </c>
+      <c r="P20">
+        <v>-9</v>
+      </c>
+      <c r="Q20">
+        <v>-10</v>
+      </c>
+      <c r="R20">
+        <v>-11</v>
+      </c>
+      <c r="S20">
+        <v>-12</v>
+      </c>
+      <c r="T20">
+        <v>-13</v>
+      </c>
+      <c r="U20">
+        <v>-14</v>
+      </c>
+      <c r="V20">
+        <v>-15</v>
+      </c>
+      <c r="W20">
+        <v>-16</v>
+      </c>
+      <c r="X20">
+        <v>-17</v>
+      </c>
+      <c r="Y20">
+        <v>-18</v>
+      </c>
+      <c r="Z20">
+        <v>-19</v>
+      </c>
+      <c r="AA20">
+        <v>-20</v>
+      </c>
+      <c r="AB20">
+        <v>-21</v>
+      </c>
+      <c r="AC20">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="25">
         <v>45310</v>
@@ -3367,9 +3538,83 @@
         <v>52</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E21" s="37">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-2</v>
+      </c>
+      <c r="K21">
+        <v>-3</v>
+      </c>
+      <c r="L21">
+        <v>-4</v>
+      </c>
+      <c r="M21">
+        <v>-5</v>
+      </c>
+      <c r="N21">
+        <v>-6</v>
+      </c>
+      <c r="O21">
+        <v>-7</v>
+      </c>
+      <c r="P21">
+        <v>-8</v>
+      </c>
+      <c r="Q21">
+        <v>-9</v>
+      </c>
+      <c r="R21">
+        <v>-10</v>
+      </c>
+      <c r="S21">
+        <v>-11</v>
+      </c>
+      <c r="T21">
+        <v>-12</v>
+      </c>
+      <c r="U21">
+        <v>-13</v>
+      </c>
+      <c r="V21">
+        <v>-14</v>
+      </c>
+      <c r="W21">
+        <v>-15</v>
+      </c>
+      <c r="X21">
+        <v>-16</v>
+      </c>
+      <c r="Y21">
+        <v>-17</v>
+      </c>
+      <c r="Z21">
+        <v>-18</v>
+      </c>
+      <c r="AA21">
+        <v>-19</v>
+      </c>
+      <c r="AB21">
+        <v>-20</v>
+      </c>
+      <c r="AC21">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>45311</v>
@@ -3378,10 +3623,83 @@
         <v>75</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="1"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E22" s="37">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-2</v>
+      </c>
+      <c r="L22">
+        <v>-3</v>
+      </c>
+      <c r="M22">
+        <v>-4</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O22">
+        <v>-6</v>
+      </c>
+      <c r="P22">
+        <v>-7</v>
+      </c>
+      <c r="Q22">
+        <v>-8</v>
+      </c>
+      <c r="R22">
+        <v>-9</v>
+      </c>
+      <c r="S22">
+        <v>-10</v>
+      </c>
+      <c r="T22">
+        <v>-11</v>
+      </c>
+      <c r="U22">
+        <v>-12</v>
+      </c>
+      <c r="V22">
+        <v>-13</v>
+      </c>
+      <c r="W22">
+        <v>-14</v>
+      </c>
+      <c r="X22">
+        <v>-15</v>
+      </c>
+      <c r="Y22">
+        <v>-16</v>
+      </c>
+      <c r="Z22">
+        <v>-17</v>
+      </c>
+      <c r="AA22">
+        <v>-18</v>
+      </c>
+      <c r="AB22">
+        <v>-19</v>
+      </c>
+      <c r="AC22">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>45312</v>
@@ -3390,9 +3708,83 @@
         <v>84</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E23" s="37">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-2</v>
+      </c>
+      <c r="M23">
+        <v>-3</v>
+      </c>
+      <c r="N23">
+        <v>-4</v>
+      </c>
+      <c r="O23">
+        <v>-5</v>
+      </c>
+      <c r="P23">
+        <v>-6</v>
+      </c>
+      <c r="Q23">
+        <v>-7</v>
+      </c>
+      <c r="R23">
+        <v>-8</v>
+      </c>
+      <c r="S23">
+        <v>-9</v>
+      </c>
+      <c r="T23">
+        <v>-10</v>
+      </c>
+      <c r="U23">
+        <v>-11</v>
+      </c>
+      <c r="V23">
+        <v>-12</v>
+      </c>
+      <c r="W23">
+        <v>-13</v>
+      </c>
+      <c r="X23">
+        <v>-14</v>
+      </c>
+      <c r="Y23">
+        <v>-15</v>
+      </c>
+      <c r="Z23">
+        <v>-16</v>
+      </c>
+      <c r="AA23">
+        <v>-17</v>
+      </c>
+      <c r="AB23">
+        <v>-18</v>
+      </c>
+      <c r="AC23">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>45313</v>
       </c>
@@ -3400,9 +3792,83 @@
         <v>94</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E24" s="37">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>-2</v>
+      </c>
+      <c r="N24">
+        <v>-3</v>
+      </c>
+      <c r="O24">
+        <v>-4</v>
+      </c>
+      <c r="P24">
+        <v>-5</v>
+      </c>
+      <c r="Q24">
+        <v>-6</v>
+      </c>
+      <c r="R24">
+        <v>-7</v>
+      </c>
+      <c r="S24">
+        <v>-8</v>
+      </c>
+      <c r="T24">
+        <v>-9</v>
+      </c>
+      <c r="U24">
+        <v>-10</v>
+      </c>
+      <c r="V24">
+        <v>-11</v>
+      </c>
+      <c r="W24">
+        <v>-12</v>
+      </c>
+      <c r="X24">
+        <v>-13</v>
+      </c>
+      <c r="Y24">
+        <v>-14</v>
+      </c>
+      <c r="Z24">
+        <v>-15</v>
+      </c>
+      <c r="AA24">
+        <v>-16</v>
+      </c>
+      <c r="AB24">
+        <v>-17</v>
+      </c>
+      <c r="AC24">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>45314</v>
       </c>
@@ -3410,9 +3876,83 @@
         <v>102</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E25" s="37">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>-1</v>
+      </c>
+      <c r="N25">
+        <v>-2</v>
+      </c>
+      <c r="O25">
+        <v>-3</v>
+      </c>
+      <c r="P25">
+        <v>-4</v>
+      </c>
+      <c r="Q25">
+        <v>-5</v>
+      </c>
+      <c r="R25">
+        <v>-6</v>
+      </c>
+      <c r="S25">
+        <v>-7</v>
+      </c>
+      <c r="T25">
+        <v>-8</v>
+      </c>
+      <c r="U25">
+        <v>-9</v>
+      </c>
+      <c r="V25">
+        <v>-10</v>
+      </c>
+      <c r="W25">
+        <v>-11</v>
+      </c>
+      <c r="X25">
+        <v>-12</v>
+      </c>
+      <c r="Y25">
+        <v>-13</v>
+      </c>
+      <c r="Z25">
+        <v>-14</v>
+      </c>
+      <c r="AA25">
+        <v>-15</v>
+      </c>
+      <c r="AB25">
+        <v>-16</v>
+      </c>
+      <c r="AC25">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>45315</v>
       </c>
@@ -3420,6 +3960,4891 @@
         <v>105</v>
       </c>
       <c r="D26" s="9"/>
+      <c r="E26" s="37">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>-2</v>
+      </c>
+      <c r="P26">
+        <v>-3</v>
+      </c>
+      <c r="Q26">
+        <v>-4</v>
+      </c>
+      <c r="R26">
+        <v>-5</v>
+      </c>
+      <c r="S26">
+        <v>-6</v>
+      </c>
+      <c r="T26">
+        <v>-7</v>
+      </c>
+      <c r="U26">
+        <v>-8</v>
+      </c>
+      <c r="V26">
+        <v>-9</v>
+      </c>
+      <c r="W26">
+        <v>-10</v>
+      </c>
+      <c r="X26">
+        <v>-11</v>
+      </c>
+      <c r="Y26">
+        <v>-12</v>
+      </c>
+      <c r="Z26">
+        <v>-13</v>
+      </c>
+      <c r="AA26">
+        <v>-14</v>
+      </c>
+      <c r="AB26">
+        <v>-15</v>
+      </c>
+      <c r="AC26">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E27" s="37">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>-2</v>
+      </c>
+      <c r="Q27">
+        <v>-3</v>
+      </c>
+      <c r="R27">
+        <v>-4</v>
+      </c>
+      <c r="S27">
+        <v>-5</v>
+      </c>
+      <c r="T27">
+        <v>-6</v>
+      </c>
+      <c r="U27">
+        <v>-7</v>
+      </c>
+      <c r="V27">
+        <v>-8</v>
+      </c>
+      <c r="W27">
+        <v>-9</v>
+      </c>
+      <c r="X27">
+        <v>-10</v>
+      </c>
+      <c r="Y27">
+        <v>-11</v>
+      </c>
+      <c r="Z27">
+        <v>-12</v>
+      </c>
+      <c r="AA27">
+        <v>-13</v>
+      </c>
+      <c r="AB27">
+        <v>-14</v>
+      </c>
+      <c r="AC27">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E28" s="37">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-2</v>
+      </c>
+      <c r="R28">
+        <v>-3</v>
+      </c>
+      <c r="S28">
+        <v>-4</v>
+      </c>
+      <c r="T28">
+        <v>-5</v>
+      </c>
+      <c r="U28">
+        <v>-6</v>
+      </c>
+      <c r="V28">
+        <v>-7</v>
+      </c>
+      <c r="W28">
+        <v>-8</v>
+      </c>
+      <c r="X28">
+        <v>-9</v>
+      </c>
+      <c r="Y28">
+        <v>-10</v>
+      </c>
+      <c r="Z28">
+        <v>-11</v>
+      </c>
+      <c r="AA28">
+        <v>-12</v>
+      </c>
+      <c r="AB28">
+        <v>-13</v>
+      </c>
+      <c r="AC28">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E29" s="37">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>-2</v>
+      </c>
+      <c r="S29">
+        <v>-3</v>
+      </c>
+      <c r="T29">
+        <v>-4</v>
+      </c>
+      <c r="U29">
+        <v>-5</v>
+      </c>
+      <c r="V29">
+        <v>-6</v>
+      </c>
+      <c r="W29">
+        <v>-7</v>
+      </c>
+      <c r="X29">
+        <v>-8</v>
+      </c>
+      <c r="Y29">
+        <v>-9</v>
+      </c>
+      <c r="Z29">
+        <v>-10</v>
+      </c>
+      <c r="AA29">
+        <v>-11</v>
+      </c>
+      <c r="AB29">
+        <v>-12</v>
+      </c>
+      <c r="AC29">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E30" s="37">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <v>-2</v>
+      </c>
+      <c r="T30">
+        <v>-3</v>
+      </c>
+      <c r="U30">
+        <v>-4</v>
+      </c>
+      <c r="V30">
+        <v>-5</v>
+      </c>
+      <c r="W30">
+        <v>-6</v>
+      </c>
+      <c r="X30">
+        <v>-7</v>
+      </c>
+      <c r="Y30">
+        <v>-8</v>
+      </c>
+      <c r="Z30">
+        <v>-9</v>
+      </c>
+      <c r="AA30">
+        <v>-10</v>
+      </c>
+      <c r="AB30">
+        <v>-11</v>
+      </c>
+      <c r="AC30">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E31" s="37">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>-1</v>
+      </c>
+      <c r="T31">
+        <v>-2</v>
+      </c>
+      <c r="U31">
+        <v>-3</v>
+      </c>
+      <c r="V31">
+        <v>-4</v>
+      </c>
+      <c r="W31">
+        <v>-5</v>
+      </c>
+      <c r="X31">
+        <v>-6</v>
+      </c>
+      <c r="Y31">
+        <v>-7</v>
+      </c>
+      <c r="Z31">
+        <v>-8</v>
+      </c>
+      <c r="AA31">
+        <v>-9</v>
+      </c>
+      <c r="AB31">
+        <v>-10</v>
+      </c>
+      <c r="AC31">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E32" s="37">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>-1</v>
+      </c>
+      <c r="U32">
+        <v>-2</v>
+      </c>
+      <c r="V32">
+        <v>-3</v>
+      </c>
+      <c r="W32">
+        <v>-4</v>
+      </c>
+      <c r="X32">
+        <v>-5</v>
+      </c>
+      <c r="Y32">
+        <v>-6</v>
+      </c>
+      <c r="Z32">
+        <v>-7</v>
+      </c>
+      <c r="AA32">
+        <v>-8</v>
+      </c>
+      <c r="AB32">
+        <v>-9</v>
+      </c>
+      <c r="AC32">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E33" s="37">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>-1</v>
+      </c>
+      <c r="V33">
+        <v>-2</v>
+      </c>
+      <c r="W33">
+        <v>-3</v>
+      </c>
+      <c r="X33">
+        <v>-4</v>
+      </c>
+      <c r="Y33">
+        <v>-5</v>
+      </c>
+      <c r="Z33">
+        <v>-6</v>
+      </c>
+      <c r="AA33">
+        <v>-7</v>
+      </c>
+      <c r="AB33">
+        <v>-8</v>
+      </c>
+      <c r="AC33">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="34" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E34" s="37">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>-1</v>
+      </c>
+      <c r="W34">
+        <v>-2</v>
+      </c>
+      <c r="X34">
+        <v>-3</v>
+      </c>
+      <c r="Y34">
+        <v>-4</v>
+      </c>
+      <c r="Z34">
+        <v>-5</v>
+      </c>
+      <c r="AA34">
+        <v>-6</v>
+      </c>
+      <c r="AB34">
+        <v>-7</v>
+      </c>
+      <c r="AC34">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E35" s="37">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
+        <v>-2</v>
+      </c>
+      <c r="Y35">
+        <v>-3</v>
+      </c>
+      <c r="Z35">
+        <v>-4</v>
+      </c>
+      <c r="AA35">
+        <v>-5</v>
+      </c>
+      <c r="AB35">
+        <v>-6</v>
+      </c>
+      <c r="AC35">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E36" s="37">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>17</v>
+      </c>
+      <c r="G36" s="5">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-2</v>
+      </c>
+      <c r="Z36">
+        <v>-3</v>
+      </c>
+      <c r="AA36">
+        <v>-4</v>
+      </c>
+      <c r="AB36">
+        <v>-5</v>
+      </c>
+      <c r="AC36">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E37" s="37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37" s="5">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>9</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>-2</v>
+      </c>
+      <c r="AA37">
+        <v>-3</v>
+      </c>
+      <c r="AB37">
+        <v>-4</v>
+      </c>
+      <c r="AC37">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E38" s="37">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38" s="5">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>-2</v>
+      </c>
+      <c r="AB38">
+        <v>-3</v>
+      </c>
+      <c r="AC38">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E39" s="37">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39" s="5">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-2</v>
+      </c>
+      <c r="AC39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E40" s="37">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40" s="5">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <v>17</v>
+      </c>
+      <c r="K40">
+        <v>16</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <v>11</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E41" s="37">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41" s="5">
+        <v>21</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <v>13</v>
+      </c>
+      <c r="P41">
+        <v>12</v>
+      </c>
+      <c r="Q41">
+        <v>11</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>9</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E42" s="37">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>23</v>
+      </c>
+      <c r="G42" s="5">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>18</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>14</v>
+      </c>
+      <c r="P42">
+        <v>13</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>9</v>
+      </c>
+      <c r="U42">
+        <v>8</v>
+      </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
+      <c r="W42">
+        <v>6</v>
+      </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E44" s="38"/>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44:AC67">_xlfn.IFNA(_xlfn.XLOOKUP(_a - _xlfn.TOROW(_a), _a, C3:C26), C3:C26)</f>
+        <v>47</v>
+      </c>
+      <c r="G44" s="5">
+        <v>47</v>
+      </c>
+      <c r="H44">
+        <v>47</v>
+      </c>
+      <c r="I44">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>47</v>
+      </c>
+      <c r="K44">
+        <v>47</v>
+      </c>
+      <c r="L44">
+        <v>47</v>
+      </c>
+      <c r="M44">
+        <v>47</v>
+      </c>
+      <c r="N44">
+        <v>47</v>
+      </c>
+      <c r="O44">
+        <v>47</v>
+      </c>
+      <c r="P44">
+        <v>47</v>
+      </c>
+      <c r="Q44">
+        <v>47</v>
+      </c>
+      <c r="R44">
+        <v>47</v>
+      </c>
+      <c r="S44">
+        <v>47</v>
+      </c>
+      <c r="T44">
+        <v>47</v>
+      </c>
+      <c r="U44">
+        <v>47</v>
+      </c>
+      <c r="V44">
+        <v>47</v>
+      </c>
+      <c r="W44">
+        <v>47</v>
+      </c>
+      <c r="X44">
+        <v>47</v>
+      </c>
+      <c r="Y44">
+        <v>47</v>
+      </c>
+      <c r="Z44">
+        <v>47</v>
+      </c>
+      <c r="AA44">
+        <v>47</v>
+      </c>
+      <c r="AB44">
+        <v>47</v>
+      </c>
+      <c r="AC44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E45" s="38"/>
+      <c r="F45">
+        <v>47</v>
+      </c>
+      <c r="G45" s="5">
+        <v>62</v>
+      </c>
+      <c r="H45">
+        <v>62</v>
+      </c>
+      <c r="I45">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>62</v>
+      </c>
+      <c r="L45">
+        <v>62</v>
+      </c>
+      <c r="M45">
+        <v>62</v>
+      </c>
+      <c r="N45">
+        <v>62</v>
+      </c>
+      <c r="O45">
+        <v>62</v>
+      </c>
+      <c r="P45">
+        <v>62</v>
+      </c>
+      <c r="Q45">
+        <v>62</v>
+      </c>
+      <c r="R45">
+        <v>62</v>
+      </c>
+      <c r="S45">
+        <v>62</v>
+      </c>
+      <c r="T45">
+        <v>62</v>
+      </c>
+      <c r="U45">
+        <v>62</v>
+      </c>
+      <c r="V45">
+        <v>62</v>
+      </c>
+      <c r="W45">
+        <v>62</v>
+      </c>
+      <c r="X45">
+        <v>62</v>
+      </c>
+      <c r="Y45">
+        <v>62</v>
+      </c>
+      <c r="Z45">
+        <v>62</v>
+      </c>
+      <c r="AA45">
+        <v>62</v>
+      </c>
+      <c r="AB45">
+        <v>62</v>
+      </c>
+      <c r="AC45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E46" s="38"/>
+      <c r="F46">
+        <v>62</v>
+      </c>
+      <c r="G46" s="5">
+        <v>47</v>
+      </c>
+      <c r="H46">
+        <v>99</v>
+      </c>
+      <c r="I46">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>99</v>
+      </c>
+      <c r="K46">
+        <v>99</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46">
+        <v>99</v>
+      </c>
+      <c r="N46">
+        <v>99</v>
+      </c>
+      <c r="O46">
+        <v>99</v>
+      </c>
+      <c r="P46">
+        <v>99</v>
+      </c>
+      <c r="Q46">
+        <v>99</v>
+      </c>
+      <c r="R46">
+        <v>99</v>
+      </c>
+      <c r="S46">
+        <v>99</v>
+      </c>
+      <c r="T46">
+        <v>99</v>
+      </c>
+      <c r="U46">
+        <v>99</v>
+      </c>
+      <c r="V46">
+        <v>99</v>
+      </c>
+      <c r="W46">
+        <v>99</v>
+      </c>
+      <c r="X46">
+        <v>99</v>
+      </c>
+      <c r="Y46">
+        <v>99</v>
+      </c>
+      <c r="Z46">
+        <v>99</v>
+      </c>
+      <c r="AA46">
+        <v>99</v>
+      </c>
+      <c r="AB46">
+        <v>99</v>
+      </c>
+      <c r="AC46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E47" s="38"/>
+      <c r="F47">
+        <v>99</v>
+      </c>
+      <c r="G47" s="5">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <v>43</v>
+      </c>
+      <c r="J47">
+        <v>43</v>
+      </c>
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47">
+        <v>43</v>
+      </c>
+      <c r="M47">
+        <v>43</v>
+      </c>
+      <c r="N47">
+        <v>43</v>
+      </c>
+      <c r="O47">
+        <v>43</v>
+      </c>
+      <c r="P47">
+        <v>43</v>
+      </c>
+      <c r="Q47">
+        <v>43</v>
+      </c>
+      <c r="R47">
+        <v>43</v>
+      </c>
+      <c r="S47">
+        <v>43</v>
+      </c>
+      <c r="T47">
+        <v>43</v>
+      </c>
+      <c r="U47">
+        <v>43</v>
+      </c>
+      <c r="V47">
+        <v>43</v>
+      </c>
+      <c r="W47">
+        <v>43</v>
+      </c>
+      <c r="X47">
+        <v>43</v>
+      </c>
+      <c r="Y47">
+        <v>43</v>
+      </c>
+      <c r="Z47">
+        <v>43</v>
+      </c>
+      <c r="AA47">
+        <v>43</v>
+      </c>
+      <c r="AB47">
+        <v>43</v>
+      </c>
+      <c r="AC47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E48" s="38"/>
+      <c r="F48">
+        <v>43</v>
+      </c>
+      <c r="G48" s="5">
+        <v>99</v>
+      </c>
+      <c r="H48">
+        <v>62</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>52</v>
+      </c>
+      <c r="K48">
+        <v>52</v>
+      </c>
+      <c r="L48">
+        <v>52</v>
+      </c>
+      <c r="M48">
+        <v>52</v>
+      </c>
+      <c r="N48">
+        <v>52</v>
+      </c>
+      <c r="O48">
+        <v>52</v>
+      </c>
+      <c r="P48">
+        <v>52</v>
+      </c>
+      <c r="Q48">
+        <v>52</v>
+      </c>
+      <c r="R48">
+        <v>52</v>
+      </c>
+      <c r="S48">
+        <v>52</v>
+      </c>
+      <c r="T48">
+        <v>52</v>
+      </c>
+      <c r="U48">
+        <v>52</v>
+      </c>
+      <c r="V48">
+        <v>52</v>
+      </c>
+      <c r="W48">
+        <v>52</v>
+      </c>
+      <c r="X48">
+        <v>52</v>
+      </c>
+      <c r="Y48">
+        <v>52</v>
+      </c>
+      <c r="Z48">
+        <v>52</v>
+      </c>
+      <c r="AA48">
+        <v>52</v>
+      </c>
+      <c r="AB48">
+        <v>52</v>
+      </c>
+      <c r="AC48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E49" s="38"/>
+      <c r="F49">
+        <v>52</v>
+      </c>
+      <c r="G49" s="5">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>65</v>
+      </c>
+      <c r="L49">
+        <v>65</v>
+      </c>
+      <c r="M49">
+        <v>65</v>
+      </c>
+      <c r="N49">
+        <v>65</v>
+      </c>
+      <c r="O49">
+        <v>65</v>
+      </c>
+      <c r="P49">
+        <v>65</v>
+      </c>
+      <c r="Q49">
+        <v>65</v>
+      </c>
+      <c r="R49">
+        <v>65</v>
+      </c>
+      <c r="S49">
+        <v>65</v>
+      </c>
+      <c r="T49">
+        <v>65</v>
+      </c>
+      <c r="U49">
+        <v>65</v>
+      </c>
+      <c r="V49">
+        <v>65</v>
+      </c>
+      <c r="W49">
+        <v>65</v>
+      </c>
+      <c r="X49">
+        <v>65</v>
+      </c>
+      <c r="Y49">
+        <v>65</v>
+      </c>
+      <c r="Z49">
+        <v>65</v>
+      </c>
+      <c r="AA49">
+        <v>65</v>
+      </c>
+      <c r="AB49">
+        <v>65</v>
+      </c>
+      <c r="AC49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E50" s="38"/>
+      <c r="F50">
+        <v>65</v>
+      </c>
+      <c r="G50" s="5">
+        <v>52</v>
+      </c>
+      <c r="H50">
+        <v>43</v>
+      </c>
+      <c r="I50">
+        <v>99</v>
+      </c>
+      <c r="J50">
+        <v>62</v>
+      </c>
+      <c r="K50">
+        <v>47</v>
+      </c>
+      <c r="L50">
+        <v>72</v>
+      </c>
+      <c r="M50">
+        <v>72</v>
+      </c>
+      <c r="N50">
+        <v>72</v>
+      </c>
+      <c r="O50">
+        <v>72</v>
+      </c>
+      <c r="P50">
+        <v>72</v>
+      </c>
+      <c r="Q50">
+        <v>72</v>
+      </c>
+      <c r="R50">
+        <v>72</v>
+      </c>
+      <c r="S50">
+        <v>72</v>
+      </c>
+      <c r="T50">
+        <v>72</v>
+      </c>
+      <c r="U50">
+        <v>72</v>
+      </c>
+      <c r="V50">
+        <v>72</v>
+      </c>
+      <c r="W50">
+        <v>72</v>
+      </c>
+      <c r="X50">
+        <v>72</v>
+      </c>
+      <c r="Y50">
+        <v>72</v>
+      </c>
+      <c r="Z50">
+        <v>72</v>
+      </c>
+      <c r="AA50">
+        <v>72</v>
+      </c>
+      <c r="AB50">
+        <v>72</v>
+      </c>
+      <c r="AC50">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E51" s="38"/>
+      <c r="F51">
+        <v>72</v>
+      </c>
+      <c r="G51" s="5">
+        <v>65</v>
+      </c>
+      <c r="H51">
+        <v>52</v>
+      </c>
+      <c r="I51">
+        <v>43</v>
+      </c>
+      <c r="J51">
+        <v>99</v>
+      </c>
+      <c r="K51">
+        <v>62</v>
+      </c>
+      <c r="L51">
+        <v>47</v>
+      </c>
+      <c r="M51">
+        <v>110</v>
+      </c>
+      <c r="N51">
+        <v>110</v>
+      </c>
+      <c r="O51">
+        <v>110</v>
+      </c>
+      <c r="P51">
+        <v>110</v>
+      </c>
+      <c r="Q51">
+        <v>110</v>
+      </c>
+      <c r="R51">
+        <v>110</v>
+      </c>
+      <c r="S51">
+        <v>110</v>
+      </c>
+      <c r="T51">
+        <v>110</v>
+      </c>
+      <c r="U51">
+        <v>110</v>
+      </c>
+      <c r="V51">
+        <v>110</v>
+      </c>
+      <c r="W51">
+        <v>110</v>
+      </c>
+      <c r="X51">
+        <v>110</v>
+      </c>
+      <c r="Y51">
+        <v>110</v>
+      </c>
+      <c r="Z51">
+        <v>110</v>
+      </c>
+      <c r="AA51">
+        <v>110</v>
+      </c>
+      <c r="AB51">
+        <v>110</v>
+      </c>
+      <c r="AC51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E52" s="38"/>
+      <c r="F52">
+        <v>110</v>
+      </c>
+      <c r="G52" s="5">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <v>65</v>
+      </c>
+      <c r="I52">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <v>43</v>
+      </c>
+      <c r="K52">
+        <v>99</v>
+      </c>
+      <c r="L52">
+        <v>62</v>
+      </c>
+      <c r="M52">
+        <v>47</v>
+      </c>
+      <c r="N52">
+        <v>106</v>
+      </c>
+      <c r="O52">
+        <v>106</v>
+      </c>
+      <c r="P52">
+        <v>106</v>
+      </c>
+      <c r="Q52">
+        <v>106</v>
+      </c>
+      <c r="R52">
+        <v>106</v>
+      </c>
+      <c r="S52">
+        <v>106</v>
+      </c>
+      <c r="T52">
+        <v>106</v>
+      </c>
+      <c r="U52">
+        <v>106</v>
+      </c>
+      <c r="V52">
+        <v>106</v>
+      </c>
+      <c r="W52">
+        <v>106</v>
+      </c>
+      <c r="X52">
+        <v>106</v>
+      </c>
+      <c r="Y52">
+        <v>106</v>
+      </c>
+      <c r="Z52">
+        <v>106</v>
+      </c>
+      <c r="AA52">
+        <v>106</v>
+      </c>
+      <c r="AB52">
+        <v>106</v>
+      </c>
+      <c r="AC52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E53" s="38"/>
+      <c r="F53">
+        <v>106</v>
+      </c>
+      <c r="G53" s="5">
+        <v>110</v>
+      </c>
+      <c r="H53">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>65</v>
+      </c>
+      <c r="J53">
+        <v>52</v>
+      </c>
+      <c r="K53">
+        <v>43</v>
+      </c>
+      <c r="L53">
+        <v>99</v>
+      </c>
+      <c r="M53">
+        <v>62</v>
+      </c>
+      <c r="N53">
+        <v>47</v>
+      </c>
+      <c r="O53">
+        <v>105</v>
+      </c>
+      <c r="P53">
+        <v>105</v>
+      </c>
+      <c r="Q53">
+        <v>105</v>
+      </c>
+      <c r="R53">
+        <v>105</v>
+      </c>
+      <c r="S53">
+        <v>105</v>
+      </c>
+      <c r="T53">
+        <v>105</v>
+      </c>
+      <c r="U53">
+        <v>105</v>
+      </c>
+      <c r="V53">
+        <v>105</v>
+      </c>
+      <c r="W53">
+        <v>105</v>
+      </c>
+      <c r="X53">
+        <v>105</v>
+      </c>
+      <c r="Y53">
+        <v>105</v>
+      </c>
+      <c r="Z53">
+        <v>105</v>
+      </c>
+      <c r="AA53">
+        <v>105</v>
+      </c>
+      <c r="AB53">
+        <v>105</v>
+      </c>
+      <c r="AC53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E54" s="38"/>
+      <c r="F54">
+        <v>105</v>
+      </c>
+      <c r="G54" s="5">
+        <v>106</v>
+      </c>
+      <c r="H54">
+        <v>110</v>
+      </c>
+      <c r="I54">
+        <v>72</v>
+      </c>
+      <c r="J54">
+        <v>65</v>
+      </c>
+      <c r="K54">
+        <v>52</v>
+      </c>
+      <c r="L54">
+        <v>43</v>
+      </c>
+      <c r="M54">
+        <v>99</v>
+      </c>
+      <c r="N54">
+        <v>62</v>
+      </c>
+      <c r="O54">
+        <v>47</v>
+      </c>
+      <c r="P54">
+        <v>103</v>
+      </c>
+      <c r="Q54">
+        <v>103</v>
+      </c>
+      <c r="R54">
+        <v>103</v>
+      </c>
+      <c r="S54">
+        <v>103</v>
+      </c>
+      <c r="T54">
+        <v>103</v>
+      </c>
+      <c r="U54">
+        <v>103</v>
+      </c>
+      <c r="V54">
+        <v>103</v>
+      </c>
+      <c r="W54">
+        <v>103</v>
+      </c>
+      <c r="X54">
+        <v>103</v>
+      </c>
+      <c r="Y54">
+        <v>103</v>
+      </c>
+      <c r="Z54">
+        <v>103</v>
+      </c>
+      <c r="AA54">
+        <v>103</v>
+      </c>
+      <c r="AB54">
+        <v>103</v>
+      </c>
+      <c r="AC54">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E55" s="38"/>
+      <c r="F55">
+        <v>103</v>
+      </c>
+      <c r="G55" s="5">
+        <v>105</v>
+      </c>
+      <c r="H55">
+        <v>106</v>
+      </c>
+      <c r="I55">
+        <v>110</v>
+      </c>
+      <c r="J55">
+        <v>72</v>
+      </c>
+      <c r="K55">
+        <v>65</v>
+      </c>
+      <c r="L55">
+        <v>52</v>
+      </c>
+      <c r="M55">
+        <v>43</v>
+      </c>
+      <c r="N55">
+        <v>99</v>
+      </c>
+      <c r="O55">
+        <v>62</v>
+      </c>
+      <c r="P55">
+        <v>47</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>100</v>
+      </c>
+      <c r="S55">
+        <v>100</v>
+      </c>
+      <c r="T55">
+        <v>100</v>
+      </c>
+      <c r="U55">
+        <v>100</v>
+      </c>
+      <c r="V55">
+        <v>100</v>
+      </c>
+      <c r="W55">
+        <v>100</v>
+      </c>
+      <c r="X55">
+        <v>100</v>
+      </c>
+      <c r="Y55">
+        <v>100</v>
+      </c>
+      <c r="Z55">
+        <v>100</v>
+      </c>
+      <c r="AA55">
+        <v>100</v>
+      </c>
+      <c r="AB55">
+        <v>100</v>
+      </c>
+      <c r="AC55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E56" s="38"/>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" s="5">
+        <v>103</v>
+      </c>
+      <c r="H56">
+        <v>105</v>
+      </c>
+      <c r="I56">
+        <v>106</v>
+      </c>
+      <c r="J56">
+        <v>110</v>
+      </c>
+      <c r="K56">
+        <v>72</v>
+      </c>
+      <c r="L56">
+        <v>65</v>
+      </c>
+      <c r="M56">
+        <v>52</v>
+      </c>
+      <c r="N56">
+        <v>43</v>
+      </c>
+      <c r="O56">
+        <v>99</v>
+      </c>
+      <c r="P56">
+        <v>62</v>
+      </c>
+      <c r="Q56">
+        <v>47</v>
+      </c>
+      <c r="R56">
+        <v>85</v>
+      </c>
+      <c r="S56">
+        <v>85</v>
+      </c>
+      <c r="T56">
+        <v>85</v>
+      </c>
+      <c r="U56">
+        <v>85</v>
+      </c>
+      <c r="V56">
+        <v>85</v>
+      </c>
+      <c r="W56">
+        <v>85</v>
+      </c>
+      <c r="X56">
+        <v>85</v>
+      </c>
+      <c r="Y56">
+        <v>85</v>
+      </c>
+      <c r="Z56">
+        <v>85</v>
+      </c>
+      <c r="AA56">
+        <v>85</v>
+      </c>
+      <c r="AB56">
+        <v>85</v>
+      </c>
+      <c r="AC56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E57" s="38"/>
+      <c r="F57">
+        <v>85</v>
+      </c>
+      <c r="G57" s="5">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>103</v>
+      </c>
+      <c r="I57">
+        <v>105</v>
+      </c>
+      <c r="J57">
+        <v>106</v>
+      </c>
+      <c r="K57">
+        <v>110</v>
+      </c>
+      <c r="L57">
+        <v>72</v>
+      </c>
+      <c r="M57">
+        <v>65</v>
+      </c>
+      <c r="N57">
+        <v>52</v>
+      </c>
+      <c r="O57">
+        <v>43</v>
+      </c>
+      <c r="P57">
+        <v>99</v>
+      </c>
+      <c r="Q57">
+        <v>62</v>
+      </c>
+      <c r="R57">
+        <v>47</v>
+      </c>
+      <c r="S57">
+        <v>90</v>
+      </c>
+      <c r="T57">
+        <v>90</v>
+      </c>
+      <c r="U57">
+        <v>90</v>
+      </c>
+      <c r="V57">
+        <v>90</v>
+      </c>
+      <c r="W57">
+        <v>90</v>
+      </c>
+      <c r="X57">
+        <v>90</v>
+      </c>
+      <c r="Y57">
+        <v>90</v>
+      </c>
+      <c r="Z57">
+        <v>90</v>
+      </c>
+      <c r="AA57">
+        <v>90</v>
+      </c>
+      <c r="AB57">
+        <v>90</v>
+      </c>
+      <c r="AC57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E58" s="38"/>
+      <c r="F58">
+        <v>90</v>
+      </c>
+      <c r="G58" s="5">
+        <v>85</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>103</v>
+      </c>
+      <c r="J58">
+        <v>105</v>
+      </c>
+      <c r="K58">
+        <v>106</v>
+      </c>
+      <c r="L58">
+        <v>110</v>
+      </c>
+      <c r="M58">
+        <v>72</v>
+      </c>
+      <c r="N58">
+        <v>65</v>
+      </c>
+      <c r="O58">
+        <v>52</v>
+      </c>
+      <c r="P58">
+        <v>43</v>
+      </c>
+      <c r="Q58">
+        <v>99</v>
+      </c>
+      <c r="R58">
+        <v>62</v>
+      </c>
+      <c r="S58">
+        <v>47</v>
+      </c>
+      <c r="T58">
+        <v>80</v>
+      </c>
+      <c r="U58">
+        <v>80</v>
+      </c>
+      <c r="V58">
+        <v>80</v>
+      </c>
+      <c r="W58">
+        <v>80</v>
+      </c>
+      <c r="X58">
+        <v>80</v>
+      </c>
+      <c r="Y58">
+        <v>80</v>
+      </c>
+      <c r="Z58">
+        <v>80</v>
+      </c>
+      <c r="AA58">
+        <v>80</v>
+      </c>
+      <c r="AB58">
+        <v>80</v>
+      </c>
+      <c r="AC58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E59" s="38"/>
+      <c r="F59">
+        <v>80</v>
+      </c>
+      <c r="G59" s="5">
+        <v>90</v>
+      </c>
+      <c r="H59">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>103</v>
+      </c>
+      <c r="K59">
+        <v>105</v>
+      </c>
+      <c r="L59">
+        <v>106</v>
+      </c>
+      <c r="M59">
+        <v>110</v>
+      </c>
+      <c r="N59">
+        <v>72</v>
+      </c>
+      <c r="O59">
+        <v>65</v>
+      </c>
+      <c r="P59">
+        <v>52</v>
+      </c>
+      <c r="Q59">
+        <v>43</v>
+      </c>
+      <c r="R59">
+        <v>99</v>
+      </c>
+      <c r="S59">
+        <v>62</v>
+      </c>
+      <c r="T59">
+        <v>47</v>
+      </c>
+      <c r="U59">
+        <v>61</v>
+      </c>
+      <c r="V59">
+        <v>61</v>
+      </c>
+      <c r="W59">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>61</v>
+      </c>
+      <c r="Y59">
+        <v>61</v>
+      </c>
+      <c r="Z59">
+        <v>61</v>
+      </c>
+      <c r="AA59">
+        <v>61</v>
+      </c>
+      <c r="AB59">
+        <v>61</v>
+      </c>
+      <c r="AC59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E60" s="38"/>
+      <c r="F60">
+        <v>61</v>
+      </c>
+      <c r="G60" s="5">
+        <v>80</v>
+      </c>
+      <c r="H60">
+        <v>90</v>
+      </c>
+      <c r="I60">
+        <v>85</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>103</v>
+      </c>
+      <c r="L60">
+        <v>105</v>
+      </c>
+      <c r="M60">
+        <v>106</v>
+      </c>
+      <c r="N60">
+        <v>110</v>
+      </c>
+      <c r="O60">
+        <v>72</v>
+      </c>
+      <c r="P60">
+        <v>65</v>
+      </c>
+      <c r="Q60">
+        <v>52</v>
+      </c>
+      <c r="R60">
+        <v>43</v>
+      </c>
+      <c r="S60">
+        <v>99</v>
+      </c>
+      <c r="T60">
+        <v>62</v>
+      </c>
+      <c r="U60">
+        <v>47</v>
+      </c>
+      <c r="V60">
+        <v>60</v>
+      </c>
+      <c r="W60">
+        <v>60</v>
+      </c>
+      <c r="X60">
+        <v>60</v>
+      </c>
+      <c r="Y60">
+        <v>60</v>
+      </c>
+      <c r="Z60">
+        <v>60</v>
+      </c>
+      <c r="AA60">
+        <v>60</v>
+      </c>
+      <c r="AB60">
+        <v>60</v>
+      </c>
+      <c r="AC60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E61" s="38"/>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" s="5">
+        <v>61</v>
+      </c>
+      <c r="H61">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>90</v>
+      </c>
+      <c r="J61">
+        <v>85</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <v>103</v>
+      </c>
+      <c r="M61">
+        <v>105</v>
+      </c>
+      <c r="N61">
+        <v>106</v>
+      </c>
+      <c r="O61">
+        <v>110</v>
+      </c>
+      <c r="P61">
+        <v>72</v>
+      </c>
+      <c r="Q61">
+        <v>65</v>
+      </c>
+      <c r="R61">
+        <v>52</v>
+      </c>
+      <c r="S61">
+        <v>43</v>
+      </c>
+      <c r="T61">
+        <v>99</v>
+      </c>
+      <c r="U61">
+        <v>62</v>
+      </c>
+      <c r="V61">
+        <v>47</v>
+      </c>
+      <c r="W61">
+        <v>55</v>
+      </c>
+      <c r="X61">
+        <v>55</v>
+      </c>
+      <c r="Y61">
+        <v>55</v>
+      </c>
+      <c r="Z61">
+        <v>55</v>
+      </c>
+      <c r="AA61">
+        <v>55</v>
+      </c>
+      <c r="AB61">
+        <v>55</v>
+      </c>
+      <c r="AC61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E62" s="38"/>
+      <c r="F62">
+        <v>55</v>
+      </c>
+      <c r="G62" s="5">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>80</v>
+      </c>
+      <c r="J62">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>85</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <v>103</v>
+      </c>
+      <c r="N62">
+        <v>105</v>
+      </c>
+      <c r="O62">
+        <v>106</v>
+      </c>
+      <c r="P62">
+        <v>110</v>
+      </c>
+      <c r="Q62">
+        <v>72</v>
+      </c>
+      <c r="R62">
+        <v>65</v>
+      </c>
+      <c r="S62">
+        <v>52</v>
+      </c>
+      <c r="T62">
+        <v>43</v>
+      </c>
+      <c r="U62">
+        <v>99</v>
+      </c>
+      <c r="V62">
+        <v>62</v>
+      </c>
+      <c r="W62">
+        <v>47</v>
+      </c>
+      <c r="X62">
+        <v>52</v>
+      </c>
+      <c r="Y62">
+        <v>52</v>
+      </c>
+      <c r="Z62">
+        <v>52</v>
+      </c>
+      <c r="AA62">
+        <v>52</v>
+      </c>
+      <c r="AB62">
+        <v>52</v>
+      </c>
+      <c r="AC62">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E63" s="38"/>
+      <c r="F63">
+        <v>52</v>
+      </c>
+      <c r="G63" s="5">
+        <v>55</v>
+      </c>
+      <c r="H63">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>61</v>
+      </c>
+      <c r="J63">
+        <v>80</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>85</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63">
+        <v>103</v>
+      </c>
+      <c r="O63">
+        <v>105</v>
+      </c>
+      <c r="P63">
+        <v>106</v>
+      </c>
+      <c r="Q63">
+        <v>110</v>
+      </c>
+      <c r="R63">
+        <v>72</v>
+      </c>
+      <c r="S63">
+        <v>65</v>
+      </c>
+      <c r="T63">
+        <v>52</v>
+      </c>
+      <c r="U63">
+        <v>43</v>
+      </c>
+      <c r="V63">
+        <v>99</v>
+      </c>
+      <c r="W63">
+        <v>62</v>
+      </c>
+      <c r="X63">
+        <v>47</v>
+      </c>
+      <c r="Y63">
+        <v>75</v>
+      </c>
+      <c r="Z63">
+        <v>75</v>
+      </c>
+      <c r="AA63">
+        <v>75</v>
+      </c>
+      <c r="AB63">
+        <v>75</v>
+      </c>
+      <c r="AC63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E64" s="38"/>
+      <c r="F64">
+        <v>75</v>
+      </c>
+      <c r="G64" s="5">
+        <v>52</v>
+      </c>
+      <c r="H64">
+        <v>55</v>
+      </c>
+      <c r="I64">
+        <v>60</v>
+      </c>
+      <c r="J64">
+        <v>61</v>
+      </c>
+      <c r="K64">
+        <v>80</v>
+      </c>
+      <c r="L64">
+        <v>90</v>
+      </c>
+      <c r="M64">
+        <v>85</v>
+      </c>
+      <c r="N64">
+        <v>100</v>
+      </c>
+      <c r="O64">
+        <v>103</v>
+      </c>
+      <c r="P64">
+        <v>105</v>
+      </c>
+      <c r="Q64">
+        <v>106</v>
+      </c>
+      <c r="R64">
+        <v>110</v>
+      </c>
+      <c r="S64">
+        <v>72</v>
+      </c>
+      <c r="T64">
+        <v>65</v>
+      </c>
+      <c r="U64">
+        <v>52</v>
+      </c>
+      <c r="V64">
+        <v>43</v>
+      </c>
+      <c r="W64">
+        <v>99</v>
+      </c>
+      <c r="X64">
+        <v>62</v>
+      </c>
+      <c r="Y64">
+        <v>47</v>
+      </c>
+      <c r="Z64">
+        <v>84</v>
+      </c>
+      <c r="AA64">
+        <v>84</v>
+      </c>
+      <c r="AB64">
+        <v>84</v>
+      </c>
+      <c r="AC64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E65" s="38"/>
+      <c r="F65">
+        <v>84</v>
+      </c>
+      <c r="G65" s="5">
+        <v>75</v>
+      </c>
+      <c r="H65">
+        <v>52</v>
+      </c>
+      <c r="I65">
+        <v>55</v>
+      </c>
+      <c r="J65">
+        <v>60</v>
+      </c>
+      <c r="K65">
+        <v>61</v>
+      </c>
+      <c r="L65">
+        <v>80</v>
+      </c>
+      <c r="M65">
+        <v>90</v>
+      </c>
+      <c r="N65">
+        <v>85</v>
+      </c>
+      <c r="O65">
+        <v>100</v>
+      </c>
+      <c r="P65">
+        <v>103</v>
+      </c>
+      <c r="Q65">
+        <v>105</v>
+      </c>
+      <c r="R65">
+        <v>106</v>
+      </c>
+      <c r="S65">
+        <v>110</v>
+      </c>
+      <c r="T65">
+        <v>72</v>
+      </c>
+      <c r="U65">
+        <v>65</v>
+      </c>
+      <c r="V65">
+        <v>52</v>
+      </c>
+      <c r="W65">
+        <v>43</v>
+      </c>
+      <c r="X65">
+        <v>99</v>
+      </c>
+      <c r="Y65">
+        <v>62</v>
+      </c>
+      <c r="Z65">
+        <v>47</v>
+      </c>
+      <c r="AA65">
+        <v>94</v>
+      </c>
+      <c r="AB65">
+        <v>94</v>
+      </c>
+      <c r="AC65">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E66" s="38"/>
+      <c r="F66">
+        <v>94</v>
+      </c>
+      <c r="G66" s="5">
+        <v>84</v>
+      </c>
+      <c r="H66">
+        <v>75</v>
+      </c>
+      <c r="I66">
+        <v>52</v>
+      </c>
+      <c r="J66">
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <v>60</v>
+      </c>
+      <c r="L66">
+        <v>61</v>
+      </c>
+      <c r="M66">
+        <v>80</v>
+      </c>
+      <c r="N66">
+        <v>90</v>
+      </c>
+      <c r="O66">
+        <v>85</v>
+      </c>
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>103</v>
+      </c>
+      <c r="R66">
+        <v>105</v>
+      </c>
+      <c r="S66">
+        <v>106</v>
+      </c>
+      <c r="T66">
+        <v>110</v>
+      </c>
+      <c r="U66">
+        <v>72</v>
+      </c>
+      <c r="V66">
+        <v>65</v>
+      </c>
+      <c r="W66">
+        <v>52</v>
+      </c>
+      <c r="X66">
+        <v>43</v>
+      </c>
+      <c r="Y66">
+        <v>99</v>
+      </c>
+      <c r="Z66">
+        <v>62</v>
+      </c>
+      <c r="AA66">
+        <v>47</v>
+      </c>
+      <c r="AB66">
+        <v>102</v>
+      </c>
+      <c r="AC66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E67" s="38"/>
+      <c r="F67">
+        <v>102</v>
+      </c>
+      <c r="G67" s="5">
+        <v>94</v>
+      </c>
+      <c r="H67">
+        <v>84</v>
+      </c>
+      <c r="I67">
+        <v>75</v>
+      </c>
+      <c r="J67">
+        <v>52</v>
+      </c>
+      <c r="K67">
+        <v>55</v>
+      </c>
+      <c r="L67">
+        <v>60</v>
+      </c>
+      <c r="M67">
+        <v>61</v>
+      </c>
+      <c r="N67">
+        <v>80</v>
+      </c>
+      <c r="O67">
+        <v>90</v>
+      </c>
+      <c r="P67">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <v>103</v>
+      </c>
+      <c r="S67">
+        <v>105</v>
+      </c>
+      <c r="T67">
+        <v>106</v>
+      </c>
+      <c r="U67">
+        <v>110</v>
+      </c>
+      <c r="V67">
+        <v>72</v>
+      </c>
+      <c r="W67">
+        <v>65</v>
+      </c>
+      <c r="X67">
+        <v>52</v>
+      </c>
+      <c r="Y67">
+        <v>43</v>
+      </c>
+      <c r="Z67">
+        <v>99</v>
+      </c>
+      <c r="AA67">
+        <v>62</v>
+      </c>
+      <c r="AB67">
+        <v>47</v>
+      </c>
+      <c r="AC67">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F69" s="39" cm="1">
+        <f t="array" ref="F69:AC92">C3:C26/_xlfn.ANCHORARRAY(F44)</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="40">
+        <v>1</v>
+      </c>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
+      <c r="I69" s="39">
+        <v>1</v>
+      </c>
+      <c r="J69" s="39">
+        <v>1</v>
+      </c>
+      <c r="K69" s="39">
+        <v>1</v>
+      </c>
+      <c r="L69" s="39">
+        <v>1</v>
+      </c>
+      <c r="M69" s="39">
+        <v>1</v>
+      </c>
+      <c r="N69" s="39">
+        <v>1</v>
+      </c>
+      <c r="O69" s="39">
+        <v>1</v>
+      </c>
+      <c r="P69" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="39">
+        <v>1</v>
+      </c>
+      <c r="R69" s="39">
+        <v>1</v>
+      </c>
+      <c r="S69" s="39">
+        <v>1</v>
+      </c>
+      <c r="T69" s="39">
+        <v>1</v>
+      </c>
+      <c r="U69" s="39">
+        <v>1</v>
+      </c>
+      <c r="V69" s="39">
+        <v>1</v>
+      </c>
+      <c r="W69" s="39">
+        <v>1</v>
+      </c>
+      <c r="X69" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F70" s="39">
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="G70" s="40">
+        <v>1</v>
+      </c>
+      <c r="H70" s="39">
+        <v>1</v>
+      </c>
+      <c r="I70" s="39">
+        <v>1</v>
+      </c>
+      <c r="J70" s="39">
+        <v>1</v>
+      </c>
+      <c r="K70" s="39">
+        <v>1</v>
+      </c>
+      <c r="L70" s="39">
+        <v>1</v>
+      </c>
+      <c r="M70" s="39">
+        <v>1</v>
+      </c>
+      <c r="N70" s="39">
+        <v>1</v>
+      </c>
+      <c r="O70" s="39">
+        <v>1</v>
+      </c>
+      <c r="P70" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="39">
+        <v>1</v>
+      </c>
+      <c r="R70" s="39">
+        <v>1</v>
+      </c>
+      <c r="S70" s="39">
+        <v>1</v>
+      </c>
+      <c r="T70" s="39">
+        <v>1</v>
+      </c>
+      <c r="U70" s="39">
+        <v>1</v>
+      </c>
+      <c r="V70" s="39">
+        <v>1</v>
+      </c>
+      <c r="W70" s="39">
+        <v>1</v>
+      </c>
+      <c r="X70" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F71" s="39">
+        <v>1.596774193548387</v>
+      </c>
+      <c r="G71" s="40">
+        <v>2.1063829787234041</v>
+      </c>
+      <c r="H71" s="39">
+        <v>1</v>
+      </c>
+      <c r="I71" s="39">
+        <v>1</v>
+      </c>
+      <c r="J71" s="39">
+        <v>1</v>
+      </c>
+      <c r="K71" s="39">
+        <v>1</v>
+      </c>
+      <c r="L71" s="39">
+        <v>1</v>
+      </c>
+      <c r="M71" s="39">
+        <v>1</v>
+      </c>
+      <c r="N71" s="39">
+        <v>1</v>
+      </c>
+      <c r="O71" s="39">
+        <v>1</v>
+      </c>
+      <c r="P71" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="39">
+        <v>1</v>
+      </c>
+      <c r="R71" s="39">
+        <v>1</v>
+      </c>
+      <c r="S71" s="39">
+        <v>1</v>
+      </c>
+      <c r="T71" s="39">
+        <v>1</v>
+      </c>
+      <c r="U71" s="39">
+        <v>1</v>
+      </c>
+      <c r="V71" s="39">
+        <v>1</v>
+      </c>
+      <c r="W71" s="39">
+        <v>1</v>
+      </c>
+      <c r="X71" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F72" s="39">
+        <v>0.43434343434343436</v>
+      </c>
+      <c r="G72" s="40">
+        <v>0.69354838709677424</v>
+      </c>
+      <c r="H72" s="39">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="I72" s="39">
+        <v>1</v>
+      </c>
+      <c r="J72" s="39">
+        <v>1</v>
+      </c>
+      <c r="K72" s="39">
+        <v>1</v>
+      </c>
+      <c r="L72" s="39">
+        <v>1</v>
+      </c>
+      <c r="M72" s="39">
+        <v>1</v>
+      </c>
+      <c r="N72" s="39">
+        <v>1</v>
+      </c>
+      <c r="O72" s="39">
+        <v>1</v>
+      </c>
+      <c r="P72" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="39">
+        <v>1</v>
+      </c>
+      <c r="R72" s="39">
+        <v>1</v>
+      </c>
+      <c r="S72" s="39">
+        <v>1</v>
+      </c>
+      <c r="T72" s="39">
+        <v>1</v>
+      </c>
+      <c r="U72" s="39">
+        <v>1</v>
+      </c>
+      <c r="V72" s="39">
+        <v>1</v>
+      </c>
+      <c r="W72" s="39">
+        <v>1</v>
+      </c>
+      <c r="X72" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F73" s="39">
+        <v>1.2093023255813953</v>
+      </c>
+      <c r="G73" s="40">
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="H73" s="39">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="I73" s="39">
+        <v>1.1063829787234043</v>
+      </c>
+      <c r="J73" s="39">
+        <v>1</v>
+      </c>
+      <c r="K73" s="39">
+        <v>1</v>
+      </c>
+      <c r="L73" s="39">
+        <v>1</v>
+      </c>
+      <c r="M73" s="39">
+        <v>1</v>
+      </c>
+      <c r="N73" s="39">
+        <v>1</v>
+      </c>
+      <c r="O73" s="39">
+        <v>1</v>
+      </c>
+      <c r="P73" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="39">
+        <v>1</v>
+      </c>
+      <c r="R73" s="39">
+        <v>1</v>
+      </c>
+      <c r="S73" s="39">
+        <v>1</v>
+      </c>
+      <c r="T73" s="39">
+        <v>1</v>
+      </c>
+      <c r="U73" s="39">
+        <v>1</v>
+      </c>
+      <c r="V73" s="39">
+        <v>1</v>
+      </c>
+      <c r="W73" s="39">
+        <v>1</v>
+      </c>
+      <c r="X73" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F74" s="39">
+        <v>1.25</v>
+      </c>
+      <c r="G74" s="40">
+        <v>1.5116279069767442</v>
+      </c>
+      <c r="H74" s="39">
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="I74" s="39">
+        <v>1.0483870967741935</v>
+      </c>
+      <c r="J74" s="39">
+        <v>1.3829787234042554</v>
+      </c>
+      <c r="K74" s="39">
+        <v>1</v>
+      </c>
+      <c r="L74" s="39">
+        <v>1</v>
+      </c>
+      <c r="M74" s="39">
+        <v>1</v>
+      </c>
+      <c r="N74" s="39">
+        <v>1</v>
+      </c>
+      <c r="O74" s="39">
+        <v>1</v>
+      </c>
+      <c r="P74" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="39">
+        <v>1</v>
+      </c>
+      <c r="R74" s="39">
+        <v>1</v>
+      </c>
+      <c r="S74" s="39">
+        <v>1</v>
+      </c>
+      <c r="T74" s="39">
+        <v>1</v>
+      </c>
+      <c r="U74" s="39">
+        <v>1</v>
+      </c>
+      <c r="V74" s="39">
+        <v>1</v>
+      </c>
+      <c r="W74" s="39">
+        <v>1</v>
+      </c>
+      <c r="X74" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F75" s="39">
+        <v>1.1076923076923078</v>
+      </c>
+      <c r="G75" s="40">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1.6744186046511629</v>
+      </c>
+      <c r="I75" s="39">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J75" s="39">
+        <v>1.1612903225806452</v>
+      </c>
+      <c r="K75" s="39">
+        <v>1.5319148936170213</v>
+      </c>
+      <c r="L75" s="39">
+        <v>1</v>
+      </c>
+      <c r="M75" s="39">
+        <v>1</v>
+      </c>
+      <c r="N75" s="39">
+        <v>1</v>
+      </c>
+      <c r="O75" s="39">
+        <v>1</v>
+      </c>
+      <c r="P75" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="39">
+        <v>1</v>
+      </c>
+      <c r="R75" s="39">
+        <v>1</v>
+      </c>
+      <c r="S75" s="39">
+        <v>1</v>
+      </c>
+      <c r="T75" s="39">
+        <v>1</v>
+      </c>
+      <c r="U75" s="39">
+        <v>1</v>
+      </c>
+      <c r="V75" s="39">
+        <v>1</v>
+      </c>
+      <c r="W75" s="39">
+        <v>1</v>
+      </c>
+      <c r="X75" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F76" s="39">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="G76" s="40">
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="H76" s="39">
+        <v>2.1153846153846154</v>
+      </c>
+      <c r="I76" s="39">
+        <v>2.558139534883721</v>
+      </c>
+      <c r="J76" s="39">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="K76" s="39">
+        <v>1.7741935483870968</v>
+      </c>
+      <c r="L76" s="39">
+        <v>2.3404255319148937</v>
+      </c>
+      <c r="M76" s="39">
+        <v>1</v>
+      </c>
+      <c r="N76" s="39">
+        <v>1</v>
+      </c>
+      <c r="O76" s="39">
+        <v>1</v>
+      </c>
+      <c r="P76" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="39">
+        <v>1</v>
+      </c>
+      <c r="R76" s="39">
+        <v>1</v>
+      </c>
+      <c r="S76" s="39">
+        <v>1</v>
+      </c>
+      <c r="T76" s="39">
+        <v>1</v>
+      </c>
+      <c r="U76" s="39">
+        <v>1</v>
+      </c>
+      <c r="V76" s="39">
+        <v>1</v>
+      </c>
+      <c r="W76" s="39">
+        <v>1</v>
+      </c>
+      <c r="X76" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F77" s="39">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="G77" s="40">
+        <v>1.4722222222222223</v>
+      </c>
+      <c r="H77" s="39">
+        <v>1.6307692307692307</v>
+      </c>
+      <c r="I77" s="39">
+        <v>2.0384615384615383</v>
+      </c>
+      <c r="J77" s="39">
+        <v>2.4651162790697674</v>
+      </c>
+      <c r="K77" s="39">
+        <v>1.0707070707070707</v>
+      </c>
+      <c r="L77" s="39">
+        <v>1.7096774193548387</v>
+      </c>
+      <c r="M77" s="39">
+        <v>2.2553191489361701</v>
+      </c>
+      <c r="N77" s="39">
+        <v>1</v>
+      </c>
+      <c r="O77" s="39">
+        <v>1</v>
+      </c>
+      <c r="P77" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="39">
+        <v>1</v>
+      </c>
+      <c r="R77" s="39">
+        <v>1</v>
+      </c>
+      <c r="S77" s="39">
+        <v>1</v>
+      </c>
+      <c r="T77" s="39">
+        <v>1</v>
+      </c>
+      <c r="U77" s="39">
+        <v>1</v>
+      </c>
+      <c r="V77" s="39">
+        <v>1</v>
+      </c>
+      <c r="W77" s="39">
+        <v>1</v>
+      </c>
+      <c r="X77" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F78" s="39">
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="G78" s="40">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="I78" s="39">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="J78" s="39">
+        <v>2.0192307692307692</v>
+      </c>
+      <c r="K78" s="39">
+        <v>2.441860465116279</v>
+      </c>
+      <c r="L78" s="39">
+        <v>1.0606060606060606</v>
+      </c>
+      <c r="M78" s="39">
+        <v>1.6935483870967742</v>
+      </c>
+      <c r="N78" s="39">
+        <v>2.2340425531914891</v>
+      </c>
+      <c r="O78" s="39">
+        <v>1</v>
+      </c>
+      <c r="P78" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="39">
+        <v>1</v>
+      </c>
+      <c r="R78" s="39">
+        <v>1</v>
+      </c>
+      <c r="S78" s="39">
+        <v>1</v>
+      </c>
+      <c r="T78" s="39">
+        <v>1</v>
+      </c>
+      <c r="U78" s="39">
+        <v>1</v>
+      </c>
+      <c r="V78" s="39">
+        <v>1</v>
+      </c>
+      <c r="W78" s="39">
+        <v>1</v>
+      </c>
+      <c r="X78" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F79" s="39">
+        <v>0.98095238095238091</v>
+      </c>
+      <c r="G79" s="40">
+        <v>0.97169811320754718</v>
+      </c>
+      <c r="H79" s="39">
+        <v>0.9363636363636364</v>
+      </c>
+      <c r="I79" s="39">
+        <v>1.4305555555555556</v>
+      </c>
+      <c r="J79" s="39">
+        <v>1.5846153846153845</v>
+      </c>
+      <c r="K79" s="39">
+        <v>1.9807692307692308</v>
+      </c>
+      <c r="L79" s="39">
+        <v>2.3953488372093021</v>
+      </c>
+      <c r="M79" s="39">
+        <v>1.0404040404040404</v>
+      </c>
+      <c r="N79" s="39">
+        <v>1.6612903225806452</v>
+      </c>
+      <c r="O79" s="39">
+        <v>2.1914893617021276</v>
+      </c>
+      <c r="P79" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="39">
+        <v>1</v>
+      </c>
+      <c r="R79" s="39">
+        <v>1</v>
+      </c>
+      <c r="S79" s="39">
+        <v>1</v>
+      </c>
+      <c r="T79" s="39">
+        <v>1</v>
+      </c>
+      <c r="U79" s="39">
+        <v>1</v>
+      </c>
+      <c r="V79" s="39">
+        <v>1</v>
+      </c>
+      <c r="W79" s="39">
+        <v>1</v>
+      </c>
+      <c r="X79" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F80" s="39">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="G80" s="40">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H80" s="39">
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="I80" s="39">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="J80" s="39">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="K80" s="39">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="L80" s="39">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="M80" s="39">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="N80" s="39">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="O80" s="39">
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="P80" s="39">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="Q80" s="39">
+        <v>1</v>
+      </c>
+      <c r="R80" s="39">
+        <v>1</v>
+      </c>
+      <c r="S80" s="39">
+        <v>1</v>
+      </c>
+      <c r="T80" s="39">
+        <v>1</v>
+      </c>
+      <c r="U80" s="39">
+        <v>1</v>
+      </c>
+      <c r="V80" s="39">
+        <v>1</v>
+      </c>
+      <c r="W80" s="39">
+        <v>1</v>
+      </c>
+      <c r="X80" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F81" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="G81" s="40">
+        <v>0.82524271844660191</v>
+      </c>
+      <c r="H81" s="39">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="I81" s="39">
+        <v>0.80188679245283023</v>
+      </c>
+      <c r="J81" s="39">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="K81" s="39">
+        <v>1.1805555555555556</v>
+      </c>
+      <c r="L81" s="39">
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="M81" s="39">
+        <v>1.6346153846153846</v>
+      </c>
+      <c r="N81" s="39">
+        <v>1.9767441860465116</v>
+      </c>
+      <c r="O81" s="39">
+        <v>0.85858585858585856</v>
+      </c>
+      <c r="P81" s="39">
+        <v>1.3709677419354838</v>
+      </c>
+      <c r="Q81" s="39">
+        <v>1.8085106382978724</v>
+      </c>
+      <c r="R81" s="39">
+        <v>1</v>
+      </c>
+      <c r="S81" s="39">
+        <v>1</v>
+      </c>
+      <c r="T81" s="39">
+        <v>1</v>
+      </c>
+      <c r="U81" s="39">
+        <v>1</v>
+      </c>
+      <c r="V81" s="39">
+        <v>1</v>
+      </c>
+      <c r="W81" s="39">
+        <v>1</v>
+      </c>
+      <c r="X81" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F82" s="39">
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="G82" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="H82" s="39">
+        <v>0.87378640776699024</v>
+      </c>
+      <c r="I82" s="39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J82" s="39">
+        <v>0.84905660377358494</v>
+      </c>
+      <c r="K82" s="39">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="L82" s="39">
+        <v>1.25</v>
+      </c>
+      <c r="M82" s="39">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="N82" s="39">
+        <v>1.7307692307692308</v>
+      </c>
+      <c r="O82" s="39">
+        <v>2.0930232558139537</v>
+      </c>
+      <c r="P82" s="39">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="Q82" s="39">
+        <v>1.4516129032258065</v>
+      </c>
+      <c r="R82" s="39">
+        <v>1.9148936170212767</v>
+      </c>
+      <c r="S82" s="39">
+        <v>1</v>
+      </c>
+      <c r="T82" s="39">
+        <v>1</v>
+      </c>
+      <c r="U82" s="39">
+        <v>1</v>
+      </c>
+      <c r="V82" s="39">
+        <v>1</v>
+      </c>
+      <c r="W82" s="39">
+        <v>1</v>
+      </c>
+      <c r="X82" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F83" s="39">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G83" s="40">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H83" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="I83" s="39">
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="J83" s="39">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="K83" s="39">
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="L83" s="39">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M83" s="39">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="N83" s="39">
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="O83" s="39">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="P83" s="39">
+        <v>1.8604651162790697</v>
+      </c>
+      <c r="Q83" s="39">
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="R83" s="39">
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="S83" s="39">
+        <v>1.7021276595744681</v>
+      </c>
+      <c r="T83" s="39">
+        <v>1</v>
+      </c>
+      <c r="U83" s="39">
+        <v>1</v>
+      </c>
+      <c r="V83" s="39">
+        <v>1</v>
+      </c>
+      <c r="W83" s="39">
+        <v>1</v>
+      </c>
+      <c r="X83" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F84" s="39">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="G84" s="40">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="H84" s="39">
+        <v>0.71764705882352942</v>
+      </c>
+      <c r="I84" s="39">
+        <v>0.61</v>
+      </c>
+      <c r="J84" s="39">
+        <v>0.59223300970873782</v>
+      </c>
+      <c r="K84" s="39">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="L84" s="39">
+        <v>0.57547169811320753</v>
+      </c>
+      <c r="M84" s="39">
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="N84" s="39">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="O84" s="39">
+        <v>0.93846153846153846</v>
+      </c>
+      <c r="P84" s="39">
+        <v>1.1730769230769231</v>
+      </c>
+      <c r="Q84" s="39">
+        <v>1.4186046511627908</v>
+      </c>
+      <c r="R84" s="39">
+        <v>0.61616161616161613</v>
+      </c>
+      <c r="S84" s="39">
+        <v>0.9838709677419355</v>
+      </c>
+      <c r="T84" s="39">
+        <v>1.2978723404255319</v>
+      </c>
+      <c r="U84" s="39">
+        <v>1</v>
+      </c>
+      <c r="V84" s="39">
+        <v>1</v>
+      </c>
+      <c r="W84" s="39">
+        <v>1</v>
+      </c>
+      <c r="X84" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F85" s="39">
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="G85" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="H85" s="39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I85" s="39">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="J85" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="K85" s="39">
+        <v>0.58252427184466016</v>
+      </c>
+      <c r="L85" s="39">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M85" s="39">
+        <v>0.56603773584905659</v>
+      </c>
+      <c r="N85" s="39">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="O85" s="39">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P85" s="39">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="Q85" s="39">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="R85" s="39">
+        <v>1.3953488372093024</v>
+      </c>
+      <c r="S85" s="39">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="T85" s="39">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="U85" s="39">
+        <v>1.2765957446808511</v>
+      </c>
+      <c r="V85" s="39">
+        <v>1</v>
+      </c>
+      <c r="W85" s="39">
+        <v>1</v>
+      </c>
+      <c r="X85" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F86" s="39">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G86" s="40">
+        <v>0.90163934426229508</v>
+      </c>
+      <c r="H86" s="39">
+        <v>0.6875</v>
+      </c>
+      <c r="I86" s="39">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J86" s="39">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="K86" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L86" s="39">
+        <v>0.53398058252427183</v>
+      </c>
+      <c r="M86" s="39">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="N86" s="39">
+        <v>0.51886792452830188</v>
+      </c>
+      <c r="O86" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="P86" s="39">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="Q86" s="39">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="R86" s="39">
+        <v>1.0576923076923077</v>
+      </c>
+      <c r="S86" s="39">
+        <v>1.2790697674418605</v>
+      </c>
+      <c r="T86" s="39">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U86" s="39">
+        <v>0.88709677419354838</v>
+      </c>
+      <c r="V86" s="39">
+        <v>1.1702127659574468</v>
+      </c>
+      <c r="W86" s="39">
+        <v>1</v>
+      </c>
+      <c r="X86" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F87" s="39">
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="G87" s="40">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H87" s="39">
+        <v>0.85245901639344257</v>
+      </c>
+      <c r="I87" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="J87" s="39">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="K87" s="39">
+        <v>0.61176470588235299</v>
+      </c>
+      <c r="L87" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="M87" s="39">
+        <v>0.50485436893203883</v>
+      </c>
+      <c r="N87" s="39">
+        <v>0.49523809523809526</v>
+      </c>
+      <c r="O87" s="39">
+        <v>0.49056603773584906</v>
+      </c>
+      <c r="P87" s="39">
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="Q87" s="39">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="R87" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="S87" s="39">
+        <v>1</v>
+      </c>
+      <c r="T87" s="39">
+        <v>1.2093023255813953</v>
+      </c>
+      <c r="U87" s="39">
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="V87" s="39">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="W87" s="39">
+        <v>1.1063829787234043</v>
+      </c>
+      <c r="X87" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F88" s="39">
+        <v>1.4423076923076923</v>
+      </c>
+      <c r="G88" s="40">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H88" s="39">
+        <v>1.25</v>
+      </c>
+      <c r="I88" s="39">
+        <v>1.2295081967213115</v>
+      </c>
+      <c r="J88" s="39">
+        <v>0.9375</v>
+      </c>
+      <c r="K88" s="39">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L88" s="39">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="N88" s="39">
+        <v>0.72815533980582525</v>
+      </c>
+      <c r="O88" s="39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P88" s="39">
+        <v>0.70754716981132071</v>
+      </c>
+      <c r="Q88" s="39">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="R88" s="39">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="S88" s="39">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="T88" s="39">
+        <v>1.4423076923076923</v>
+      </c>
+      <c r="U88" s="39">
+        <v>1.7441860465116279</v>
+      </c>
+      <c r="V88" s="39">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="W88" s="39">
+        <v>1.2096774193548387</v>
+      </c>
+      <c r="X88" s="39">
+        <v>1.5957446808510638</v>
+      </c>
+      <c r="Y88" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F89" s="39">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G89" s="40">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="H89" s="39">
+        <v>1.5272727272727273</v>
+      </c>
+      <c r="I89" s="39">
+        <v>1.4</v>
+      </c>
+      <c r="J89" s="39">
+        <v>1.3770491803278688</v>
+      </c>
+      <c r="K89" s="39">
+        <v>1.05</v>
+      </c>
+      <c r="L89" s="39">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M89" s="39">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="N89" s="39">
+        <v>0.84</v>
+      </c>
+      <c r="O89" s="39">
+        <v>0.81553398058252424</v>
+      </c>
+      <c r="P89" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="Q89" s="39">
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="R89" s="39">
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="S89" s="39">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="T89" s="39">
+        <v>1.2923076923076924</v>
+      </c>
+      <c r="U89" s="39">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="V89" s="39">
+        <v>1.9534883720930232</v>
+      </c>
+      <c r="W89" s="39">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="X89" s="39">
+        <v>1.3548387096774193</v>
+      </c>
+      <c r="Y89" s="39">
+        <v>1.7872340425531914</v>
+      </c>
+      <c r="Z89" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F90" s="39">
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="G90" s="40">
+        <v>1.2533333333333334</v>
+      </c>
+      <c r="H90" s="39">
+        <v>1.8076923076923077</v>
+      </c>
+      <c r="I90" s="39">
+        <v>1.709090909090909</v>
+      </c>
+      <c r="J90" s="39">
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="K90" s="39">
+        <v>1.540983606557377</v>
+      </c>
+      <c r="L90" s="39">
+        <v>1.175</v>
+      </c>
+      <c r="M90" s="39">
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="N90" s="39">
+        <v>1.1058823529411765</v>
+      </c>
+      <c r="O90" s="39">
+        <v>0.94</v>
+      </c>
+      <c r="P90" s="39">
+        <v>0.91262135922330101</v>
+      </c>
+      <c r="Q90" s="39">
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="R90" s="39">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S90" s="39">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="T90" s="39">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="U90" s="39">
+        <v>1.4461538461538461</v>
+      </c>
+      <c r="V90" s="39">
+        <v>1.8076923076923077</v>
+      </c>
+      <c r="W90" s="39">
+        <v>2.1860465116279069</v>
+      </c>
+      <c r="X90" s="39">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="Y90" s="39">
+        <v>1.5161290322580645</v>
+      </c>
+      <c r="Z90" s="39">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F91" s="39">
+        <v>1.0851063829787233</v>
+      </c>
+      <c r="G91" s="40">
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="H91" s="39">
+        <v>1.36</v>
+      </c>
+      <c r="I91" s="39">
+        <v>1.9615384615384615</v>
+      </c>
+      <c r="J91" s="39">
+        <v>1.8545454545454545</v>
+      </c>
+      <c r="K91" s="39">
+        <v>1.7</v>
+      </c>
+      <c r="L91" s="39">
+        <v>1.6721311475409837</v>
+      </c>
+      <c r="M91" s="39">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="N91" s="39">
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="O91" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="P91" s="39">
+        <v>1.02</v>
+      </c>
+      <c r="Q91" s="39">
+        <v>0.99029126213592233</v>
+      </c>
+      <c r="R91" s="39">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="S91" s="39">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="T91" s="39">
+        <v>0.92727272727272725</v>
+      </c>
+      <c r="U91" s="39">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="V91" s="39">
+        <v>1.5692307692307692</v>
+      </c>
+      <c r="W91" s="39">
+        <v>1.9615384615384615</v>
+      </c>
+      <c r="X91" s="39">
+        <v>2.3720930232558142</v>
+      </c>
+      <c r="Y91" s="39">
+        <v>1.0303030303030303</v>
+      </c>
+      <c r="Z91" s="39">
+        <v>1.6451612903225807</v>
+      </c>
+      <c r="AA91" s="39">
+        <v>2.1702127659574466</v>
+      </c>
+      <c r="AB91" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F92" s="39">
+        <v>1.0294117647058822</v>
+      </c>
+      <c r="G92" s="40">
+        <v>1.1170212765957446</v>
+      </c>
+      <c r="H92" s="39">
+        <v>1.25</v>
+      </c>
+      <c r="I92" s="39">
+        <v>1.4</v>
+      </c>
+      <c r="J92" s="39">
+        <v>2.0192307692307692</v>
+      </c>
+      <c r="K92" s="39">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="L92" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="M92" s="39">
+        <v>1.721311475409836</v>
+      </c>
+      <c r="N92" s="39">
+        <v>1.3125</v>
+      </c>
+      <c r="O92" s="39">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="P92" s="39">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="Q92" s="39">
+        <v>1.05</v>
+      </c>
+      <c r="R92" s="39">
+        <v>1.0194174757281553</v>
+      </c>
+      <c r="S92" s="39">
+        <v>1</v>
+      </c>
+      <c r="T92" s="39">
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="U92" s="39">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="V92" s="39">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="W92" s="39">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="X92" s="39">
+        <v>2.0192307692307692</v>
+      </c>
+      <c r="Y92" s="39">
+        <v>2.441860465116279</v>
+      </c>
+      <c r="Z92" s="39">
+        <v>1.0606060606060606</v>
+      </c>
+      <c r="AA92" s="39">
+        <v>1.6935483870967742</v>
+      </c>
+      <c r="AB92" s="39">
+        <v>2.2340425531914891</v>
+      </c>
+      <c r="AC92" s="39">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CH-139 Custom Grouping.xlsx
+++ b/CH-139 Custom Grouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1B717-BA5D-410C-BEAA-C3E230179E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA40EE4-A5BF-40CB-8DCF-8EAFA0BA873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0;\-0;0;@"/>
-    <numFmt numFmtId="167" formatCode="0.000;\-0.000;0.000;@"/>
+    <numFmt numFmtId="165" formatCode="0;\-0;0;@"/>
+    <numFmt numFmtId="166" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -397,6 +397,21 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,21 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,6 +1063,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1076,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1091,16 +1094,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
       <c r="E1"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="40"/>
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1487,20 +1490,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="33"/>
+      <c r="I1" s="40"/>
       <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2155,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2537058D-8066-453F-8E56-AFF03DEA6AFA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,16 +2173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
       <c r="E1"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="40"/>
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2444,7 +2447,7 @@
       <c r="C15" s="17">
         <v>85</v>
       </c>
-      <c r="E15" s="35" cm="1">
+      <c r="E15" s="31" cm="1">
         <f t="array" ref="E15:E38">_xlfn.SCAN(
                             ,
                             C3:C26,
@@ -2475,7 +2478,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>47</v>
       </c>
       <c r="F16">
@@ -2495,7 +2498,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>47</v>
       </c>
       <c r="F17">
@@ -2515,7 +2518,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="35">
+      <c r="E18" s="31">
         <v>99</v>
       </c>
       <c r="F18">
@@ -2535,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="35">
+      <c r="E19" s="31">
         <v>43</v>
       </c>
       <c r="F19">
@@ -2555,7 +2558,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="35">
+      <c r="E20" s="31">
         <v>43</v>
       </c>
       <c r="F20">
@@ -2575,7 +2578,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <v>43</v>
       </c>
       <c r="F21">
@@ -2595,7 +2598,7 @@
         <v>75</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="35">
+      <c r="E22" s="31">
         <v>43</v>
       </c>
       <c r="F22">
@@ -2616,7 +2619,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <v>110</v>
       </c>
       <c r="F23">
@@ -2635,7 +2638,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="35">
+      <c r="E24" s="31">
         <v>110</v>
       </c>
       <c r="F24">
@@ -2654,7 +2657,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="35">
+      <c r="E25" s="31">
         <v>110</v>
       </c>
       <c r="F25">
@@ -2673,7 +2676,7 @@
         <v>105</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="35">
+      <c r="E26" s="31">
         <v>110</v>
       </c>
       <c r="F26">
@@ -2685,7 +2688,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <v>110</v>
       </c>
       <c r="F27">
@@ -2697,7 +2700,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="35">
+      <c r="E28" s="31">
         <v>85</v>
       </c>
       <c r="F28">
@@ -2709,7 +2712,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E29" s="35">
+      <c r="E29" s="31">
         <v>90</v>
       </c>
       <c r="F29">
@@ -2721,7 +2724,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E30" s="35">
+      <c r="E30" s="31">
         <v>90</v>
       </c>
       <c r="F30">
@@ -2733,7 +2736,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E31" s="35">
+      <c r="E31" s="31">
         <v>90</v>
       </c>
       <c r="F31">
@@ -2745,7 +2748,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E32" s="35">
+      <c r="E32" s="31">
         <v>90</v>
       </c>
       <c r="F32">
@@ -2757,7 +2760,7 @@
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="35">
+      <c r="E33" s="31">
         <v>90</v>
       </c>
       <c r="F33">
@@ -2769,7 +2772,7 @@
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="35">
+      <c r="E34" s="31">
         <v>52</v>
       </c>
       <c r="F34">
@@ -2781,7 +2784,7 @@
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E35" s="35">
+      <c r="E35" s="31">
         <v>52</v>
       </c>
       <c r="F35">
@@ -2793,7 +2796,7 @@
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E36" s="35">
+      <c r="E36" s="31">
         <v>52</v>
       </c>
       <c r="F36">
@@ -2805,7 +2808,7 @@
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <v>52</v>
       </c>
       <c r="F37">
@@ -2817,7 +2820,7 @@
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E38" s="35">
+      <c r="E38" s="31">
         <v>52</v>
       </c>
       <c r="F38">
@@ -2918,7 +2921,7 @@
       <c r="E49" t="str">
         <v>110,106,105</v>
       </c>
-      <c r="G49" s="36" t="b">
+      <c r="G49" s="32" t="b">
         <f>_xlfn.XOR(_xlfn.ANCHORARRAY(G46))</f>
         <v>1</v>
       </c>
@@ -3007,7 +3010,7 @@
       <c r="E59" t="str">
         <v>55,52,75</v>
       </c>
-      <c r="G59" s="36" t="b">
+      <c r="G59" s="32" t="b">
         <f>_xlfn.XOR(_xlfn.ANCHORARRAY(G56))</f>
         <v>0</v>
       </c>
@@ -3049,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862630FE-0C64-4F68-B55D-7D50567D4860}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="C51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3064,16 +3067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
       <c r="E1"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="40"/>
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3329,6 +3332,10 @@
       <c r="F16">
         <v>1.558139534883721</v>
       </c>
+      <c r="H16">
+        <f>_xlfn.IFNA(_xlfn.XLOOKUP(-3,B3:B26,C3:C26),1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -3366,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="37" cm="1">
+      <c r="E19" s="33" cm="1">
         <f t="array" ref="E19:E42">DAY(B3:B26)</f>
         <v>1</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="37">
+      <c r="E20" s="33">
         <v>2</v>
       </c>
       <c r="F20">
@@ -3538,7 +3545,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="37">
+      <c r="E21" s="33">
         <v>3</v>
       </c>
       <c r="F21">
@@ -3623,7 +3630,7 @@
         <v>75</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="37">
+      <c r="E22" s="33">
         <v>4</v>
       </c>
       <c r="F22">
@@ -3708,7 +3715,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="37">
+      <c r="E23" s="33">
         <v>5</v>
       </c>
       <c r="F23">
@@ -3792,7 +3799,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="37">
+      <c r="E24" s="33">
         <v>6</v>
       </c>
       <c r="F24">
@@ -3876,7 +3883,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="37">
+      <c r="E25" s="33">
         <v>7</v>
       </c>
       <c r="F25">
@@ -3960,7 +3967,7 @@
         <v>105</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="37">
+      <c r="E26" s="33">
         <v>8</v>
       </c>
       <c r="F26">
@@ -4037,7 +4044,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E27" s="37">
+      <c r="E27" s="33">
         <v>9</v>
       </c>
       <c r="F27">
@@ -4114,7 +4121,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E28" s="37">
+      <c r="E28" s="33">
         <v>10</v>
       </c>
       <c r="F28">
@@ -4191,7 +4198,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E29" s="37">
+      <c r="E29" s="33">
         <v>11</v>
       </c>
       <c r="F29">
@@ -4268,7 +4275,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E30" s="37">
+      <c r="E30" s="33">
         <v>12</v>
       </c>
       <c r="F30">
@@ -4345,7 +4352,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E31" s="37">
+      <c r="E31" s="33">
         <v>13</v>
       </c>
       <c r="F31">
@@ -4422,7 +4429,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E32" s="37">
+      <c r="E32" s="33">
         <v>14</v>
       </c>
       <c r="F32">
@@ -4499,7 +4506,7 @@
       </c>
     </row>
     <row r="33" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E33" s="37">
+      <c r="E33" s="33">
         <v>15</v>
       </c>
       <c r="F33">
@@ -4576,7 +4583,7 @@
       </c>
     </row>
     <row r="34" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E34" s="37">
+      <c r="E34" s="33">
         <v>16</v>
       </c>
       <c r="F34">
@@ -4653,7 +4660,7 @@
       </c>
     </row>
     <row r="35" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E35" s="37">
+      <c r="E35" s="33">
         <v>17</v>
       </c>
       <c r="F35">
@@ -4730,7 +4737,7 @@
       </c>
     </row>
     <row r="36" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E36" s="37">
+      <c r="E36" s="33">
         <v>18</v>
       </c>
       <c r="F36">
@@ -4807,7 +4814,7 @@
       </c>
     </row>
     <row r="37" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E37" s="37">
+      <c r="E37" s="33">
         <v>19</v>
       </c>
       <c r="F37">
@@ -4884,7 +4891,7 @@
       </c>
     </row>
     <row r="38" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E38" s="37">
+      <c r="E38" s="33">
         <v>20</v>
       </c>
       <c r="F38">
@@ -4961,7 +4968,7 @@
       </c>
     </row>
     <row r="39" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E39" s="37">
+      <c r="E39" s="33">
         <v>21</v>
       </c>
       <c r="F39">
@@ -5038,7 +5045,7 @@
       </c>
     </row>
     <row r="40" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E40" s="37">
+      <c r="E40" s="33">
         <v>22</v>
       </c>
       <c r="F40">
@@ -5115,7 +5122,7 @@
       </c>
     </row>
     <row r="41" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E41" s="37">
+      <c r="E41" s="33">
         <v>23</v>
       </c>
       <c r="F41">
@@ -5192,7 +5199,7 @@
       </c>
     </row>
     <row r="42" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E42" s="37">
+      <c r="E42" s="33">
         <v>24</v>
       </c>
       <c r="F42">
@@ -5269,7 +5276,7 @@
       </c>
     </row>
     <row r="44" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E44" s="38"/>
+      <c r="E44" s="34"/>
       <c r="F44" cm="1">
         <f t="array" ref="F44:AC67">_xlfn.IFNA(_xlfn.XLOOKUP(_a - _xlfn.TOROW(_a), _a, C3:C26), C3:C26)</f>
         <v>47</v>
@@ -5345,7 +5352,7 @@
       </c>
     </row>
     <row r="45" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E45" s="38"/>
+      <c r="E45" s="34"/>
       <c r="F45">
         <v>47</v>
       </c>
@@ -5420,7 +5427,7 @@
       </c>
     </row>
     <row r="46" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E46" s="38"/>
+      <c r="E46" s="34"/>
       <c r="F46">
         <v>62</v>
       </c>
@@ -5495,7 +5502,7 @@
       </c>
     </row>
     <row r="47" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E47" s="38"/>
+      <c r="E47" s="34"/>
       <c r="F47">
         <v>99</v>
       </c>
@@ -5570,7 +5577,7 @@
       </c>
     </row>
     <row r="48" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E48" s="38"/>
+      <c r="E48" s="34"/>
       <c r="F48">
         <v>43</v>
       </c>
@@ -5645,7 +5652,7 @@
       </c>
     </row>
     <row r="49" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E49" s="38"/>
+      <c r="E49" s="34"/>
       <c r="F49">
         <v>52</v>
       </c>
@@ -5720,7 +5727,7 @@
       </c>
     </row>
     <row r="50" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E50" s="38"/>
+      <c r="E50" s="34"/>
       <c r="F50">
         <v>65</v>
       </c>
@@ -5795,7 +5802,7 @@
       </c>
     </row>
     <row r="51" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E51" s="38"/>
+      <c r="E51" s="34"/>
       <c r="F51">
         <v>72</v>
       </c>
@@ -5870,7 +5877,7 @@
       </c>
     </row>
     <row r="52" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E52" s="38"/>
+      <c r="E52" s="34"/>
       <c r="F52">
         <v>110</v>
       </c>
@@ -5945,7 +5952,7 @@
       </c>
     </row>
     <row r="53" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E53" s="38"/>
+      <c r="E53" s="34"/>
       <c r="F53">
         <v>106</v>
       </c>
@@ -6020,7 +6027,7 @@
       </c>
     </row>
     <row r="54" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E54" s="38"/>
+      <c r="E54" s="34"/>
       <c r="F54">
         <v>105</v>
       </c>
@@ -6095,7 +6102,7 @@
       </c>
     </row>
     <row r="55" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E55" s="38"/>
+      <c r="E55" s="34"/>
       <c r="F55">
         <v>103</v>
       </c>
@@ -6170,7 +6177,7 @@
       </c>
     </row>
     <row r="56" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E56" s="38"/>
+      <c r="E56" s="34"/>
       <c r="F56">
         <v>100</v>
       </c>
@@ -6245,7 +6252,7 @@
       </c>
     </row>
     <row r="57" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E57" s="38"/>
+      <c r="E57" s="34"/>
       <c r="F57">
         <v>85</v>
       </c>
@@ -6320,7 +6327,7 @@
       </c>
     </row>
     <row r="58" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E58" s="38"/>
+      <c r="E58" s="34"/>
       <c r="F58">
         <v>90</v>
       </c>
@@ -6395,7 +6402,7 @@
       </c>
     </row>
     <row r="59" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E59" s="38"/>
+      <c r="E59" s="34"/>
       <c r="F59">
         <v>80</v>
       </c>
@@ -6470,7 +6477,7 @@
       </c>
     </row>
     <row r="60" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E60" s="38"/>
+      <c r="E60" s="34"/>
       <c r="F60">
         <v>61</v>
       </c>
@@ -6545,7 +6552,7 @@
       </c>
     </row>
     <row r="61" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E61" s="38"/>
+      <c r="E61" s="34"/>
       <c r="F61">
         <v>60</v>
       </c>
@@ -6620,7 +6627,7 @@
       </c>
     </row>
     <row r="62" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E62" s="38"/>
+      <c r="E62" s="34"/>
       <c r="F62">
         <v>55</v>
       </c>
@@ -6695,7 +6702,7 @@
       </c>
     </row>
     <row r="63" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E63" s="38"/>
+      <c r="E63" s="34"/>
       <c r="F63">
         <v>52</v>
       </c>
@@ -6770,7 +6777,7 @@
       </c>
     </row>
     <row r="64" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E64" s="38"/>
+      <c r="E64" s="34"/>
       <c r="F64">
         <v>75</v>
       </c>
@@ -6845,7 +6852,7 @@
       </c>
     </row>
     <row r="65" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E65" s="38"/>
+      <c r="E65" s="34"/>
       <c r="F65">
         <v>84</v>
       </c>
@@ -6920,7 +6927,7 @@
       </c>
     </row>
     <row r="66" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E66" s="38"/>
+      <c r="E66" s="34"/>
       <c r="F66">
         <v>94</v>
       </c>
@@ -6995,7 +7002,7 @@
       </c>
     </row>
     <row r="67" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E67" s="38"/>
+      <c r="E67" s="34"/>
       <c r="F67">
         <v>102</v>
       </c>
@@ -7070,1780 +7077,1780 @@
       </c>
     </row>
     <row r="69" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F69" s="39" cm="1">
-        <f t="array" ref="F69:AC92">C3:C26/_xlfn.ANCHORARRAY(F44)</f>
+      <c r="F69" s="35" cm="1">
+        <f t="array" ref="F69:AC92">C3:C26/_xlfn.ANCHORARRAY(F44)-1</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="36">
+        <v>0</v>
+      </c>
+      <c r="H69" s="35">
+        <v>0</v>
+      </c>
+      <c r="I69" s="35">
+        <v>0</v>
+      </c>
+      <c r="J69" s="35">
+        <v>0</v>
+      </c>
+      <c r="K69" s="35">
+        <v>0</v>
+      </c>
+      <c r="L69" s="35">
+        <v>0</v>
+      </c>
+      <c r="M69" s="35">
+        <v>0</v>
+      </c>
+      <c r="N69" s="35">
+        <v>0</v>
+      </c>
+      <c r="O69" s="35">
+        <v>0</v>
+      </c>
+      <c r="P69" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="35">
+        <v>0</v>
+      </c>
+      <c r="R69" s="35">
+        <v>0</v>
+      </c>
+      <c r="S69" s="35">
+        <v>0</v>
+      </c>
+      <c r="T69" s="35">
+        <v>0</v>
+      </c>
+      <c r="U69" s="35">
+        <v>0</v>
+      </c>
+      <c r="V69" s="35">
+        <v>0</v>
+      </c>
+      <c r="W69" s="35">
+        <v>0</v>
+      </c>
+      <c r="X69" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F70" s="35">
+        <v>0.31914893617021267</v>
+      </c>
+      <c r="G70" s="36">
+        <v>0</v>
+      </c>
+      <c r="H70" s="35">
+        <v>0</v>
+      </c>
+      <c r="I70" s="35">
+        <v>0</v>
+      </c>
+      <c r="J70" s="35">
+        <v>0</v>
+      </c>
+      <c r="K70" s="35">
+        <v>0</v>
+      </c>
+      <c r="L70" s="35">
+        <v>0</v>
+      </c>
+      <c r="M70" s="35">
+        <v>0</v>
+      </c>
+      <c r="N70" s="35">
+        <v>0</v>
+      </c>
+      <c r="O70" s="35">
+        <v>0</v>
+      </c>
+      <c r="P70" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="35">
+        <v>0</v>
+      </c>
+      <c r="R70" s="35">
+        <v>0</v>
+      </c>
+      <c r="S70" s="35">
+        <v>0</v>
+      </c>
+      <c r="T70" s="35">
+        <v>0</v>
+      </c>
+      <c r="U70" s="35">
+        <v>0</v>
+      </c>
+      <c r="V70" s="35">
+        <v>0</v>
+      </c>
+      <c r="W70" s="35">
+        <v>0</v>
+      </c>
+      <c r="X70" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F71" s="35">
+        <v>0.59677419354838701</v>
+      </c>
+      <c r="G71" s="36">
+        <v>1.1063829787234041</v>
+      </c>
+      <c r="H71" s="35">
+        <v>0</v>
+      </c>
+      <c r="I71" s="35">
+        <v>0</v>
+      </c>
+      <c r="J71" s="35">
+        <v>0</v>
+      </c>
+      <c r="K71" s="35">
+        <v>0</v>
+      </c>
+      <c r="L71" s="35">
+        <v>0</v>
+      </c>
+      <c r="M71" s="35">
+        <v>0</v>
+      </c>
+      <c r="N71" s="35">
+        <v>0</v>
+      </c>
+      <c r="O71" s="35">
+        <v>0</v>
+      </c>
+      <c r="P71" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="35">
+        <v>0</v>
+      </c>
+      <c r="R71" s="35">
+        <v>0</v>
+      </c>
+      <c r="S71" s="35">
+        <v>0</v>
+      </c>
+      <c r="T71" s="35">
+        <v>0</v>
+      </c>
+      <c r="U71" s="35">
+        <v>0</v>
+      </c>
+      <c r="V71" s="35">
+        <v>0</v>
+      </c>
+      <c r="W71" s="35">
+        <v>0</v>
+      </c>
+      <c r="X71" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F72" s="35">
+        <v>-0.56565656565656564</v>
+      </c>
+      <c r="G72" s="36">
+        <v>-0.30645161290322576</v>
+      </c>
+      <c r="H72" s="35">
+        <v>-8.5106382978723416E-2</v>
+      </c>
+      <c r="I72" s="35">
+        <v>0</v>
+      </c>
+      <c r="J72" s="35">
+        <v>0</v>
+      </c>
+      <c r="K72" s="35">
+        <v>0</v>
+      </c>
+      <c r="L72" s="35">
+        <v>0</v>
+      </c>
+      <c r="M72" s="35">
+        <v>0</v>
+      </c>
+      <c r="N72" s="35">
+        <v>0</v>
+      </c>
+      <c r="O72" s="35">
+        <v>0</v>
+      </c>
+      <c r="P72" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="35">
+        <v>0</v>
+      </c>
+      <c r="R72" s="35">
+        <v>0</v>
+      </c>
+      <c r="S72" s="35">
+        <v>0</v>
+      </c>
+      <c r="T72" s="35">
+        <v>0</v>
+      </c>
+      <c r="U72" s="35">
+        <v>0</v>
+      </c>
+      <c r="V72" s="35">
+        <v>0</v>
+      </c>
+      <c r="W72" s="35">
+        <v>0</v>
+      </c>
+      <c r="X72" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F73" s="35">
+        <v>0.20930232558139528</v>
+      </c>
+      <c r="G73" s="36">
+        <v>-0.4747474747474747</v>
+      </c>
+      <c r="H73" s="35">
+        <v>-0.16129032258064513</v>
+      </c>
+      <c r="I73" s="35">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="J73" s="35">
+        <v>0</v>
+      </c>
+      <c r="K73" s="35">
+        <v>0</v>
+      </c>
+      <c r="L73" s="35">
+        <v>0</v>
+      </c>
+      <c r="M73" s="35">
+        <v>0</v>
+      </c>
+      <c r="N73" s="35">
+        <v>0</v>
+      </c>
+      <c r="O73" s="35">
+        <v>0</v>
+      </c>
+      <c r="P73" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="35">
+        <v>0</v>
+      </c>
+      <c r="R73" s="35">
+        <v>0</v>
+      </c>
+      <c r="S73" s="35">
+        <v>0</v>
+      </c>
+      <c r="T73" s="35">
+        <v>0</v>
+      </c>
+      <c r="U73" s="35">
+        <v>0</v>
+      </c>
+      <c r="V73" s="35">
+        <v>0</v>
+      </c>
+      <c r="W73" s="35">
+        <v>0</v>
+      </c>
+      <c r="X73" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F74" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="36">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="H74" s="35">
+        <v>-0.34343434343434343</v>
+      </c>
+      <c r="I74" s="35">
+        <v>4.8387096774193505E-2</v>
+      </c>
+      <c r="J74" s="35">
+        <v>0.38297872340425543</v>
+      </c>
+      <c r="K74" s="35">
+        <v>0</v>
+      </c>
+      <c r="L74" s="35">
+        <v>0</v>
+      </c>
+      <c r="M74" s="35">
+        <v>0</v>
+      </c>
+      <c r="N74" s="35">
+        <v>0</v>
+      </c>
+      <c r="O74" s="35">
+        <v>0</v>
+      </c>
+      <c r="P74" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="35">
+        <v>0</v>
+      </c>
+      <c r="R74" s="35">
+        <v>0</v>
+      </c>
+      <c r="S74" s="35">
+        <v>0</v>
+      </c>
+      <c r="T74" s="35">
+        <v>0</v>
+      </c>
+      <c r="U74" s="35">
+        <v>0</v>
+      </c>
+      <c r="V74" s="35">
+        <v>0</v>
+      </c>
+      <c r="W74" s="35">
+        <v>0</v>
+      </c>
+      <c r="X74" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F75" s="35">
+        <v>0.10769230769230775</v>
+      </c>
+      <c r="G75" s="36">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="H75" s="35">
+        <v>0.67441860465116288</v>
+      </c>
+      <c r="I75" s="35">
+        <v>-0.27272727272727271</v>
+      </c>
+      <c r="J75" s="35">
+        <v>0.16129032258064524</v>
+      </c>
+      <c r="K75" s="35">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="L75" s="35">
+        <v>0</v>
+      </c>
+      <c r="M75" s="35">
+        <v>0</v>
+      </c>
+      <c r="N75" s="35">
+        <v>0</v>
+      </c>
+      <c r="O75" s="35">
+        <v>0</v>
+      </c>
+      <c r="P75" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="35">
+        <v>0</v>
+      </c>
+      <c r="R75" s="35">
+        <v>0</v>
+      </c>
+      <c r="S75" s="35">
+        <v>0</v>
+      </c>
+      <c r="T75" s="35">
+        <v>0</v>
+      </c>
+      <c r="U75" s="35">
+        <v>0</v>
+      </c>
+      <c r="V75" s="35">
+        <v>0</v>
+      </c>
+      <c r="W75" s="35">
+        <v>0</v>
+      </c>
+      <c r="X75" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F76" s="35">
+        <v>0.52777777777777768</v>
+      </c>
+      <c r="G76" s="36">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H76" s="35">
+        <v>1.1153846153846154</v>
+      </c>
+      <c r="I76" s="35">
+        <v>1.558139534883721</v>
+      </c>
+      <c r="J76" s="35">
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="K76" s="35">
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="L76" s="35">
+        <v>1.3404255319148937</v>
+      </c>
+      <c r="M76" s="35">
+        <v>0</v>
+      </c>
+      <c r="N76" s="35">
+        <v>0</v>
+      </c>
+      <c r="O76" s="35">
+        <v>0</v>
+      </c>
+      <c r="P76" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="35">
+        <v>0</v>
+      </c>
+      <c r="R76" s="35">
+        <v>0</v>
+      </c>
+      <c r="S76" s="35">
+        <v>0</v>
+      </c>
+      <c r="T76" s="35">
+        <v>0</v>
+      </c>
+      <c r="U76" s="35">
+        <v>0</v>
+      </c>
+      <c r="V76" s="35">
+        <v>0</v>
+      </c>
+      <c r="W76" s="35">
+        <v>0</v>
+      </c>
+      <c r="X76" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F77" s="35">
+        <v>-3.6363636363636376E-2</v>
+      </c>
+      <c r="G77" s="36">
+        <v>0.47222222222222232</v>
+      </c>
+      <c r="H77" s="35">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="I77" s="35">
+        <v>1.0384615384615383</v>
+      </c>
+      <c r="J77" s="35">
+        <v>1.4651162790697674</v>
+      </c>
+      <c r="K77" s="35">
+        <v>7.0707070707070718E-2</v>
+      </c>
+      <c r="L77" s="35">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="M77" s="35">
+        <v>1.2553191489361701</v>
+      </c>
+      <c r="N77" s="35">
+        <v>0</v>
+      </c>
+      <c r="O77" s="35">
+        <v>0</v>
+      </c>
+      <c r="P77" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="35">
+        <v>0</v>
+      </c>
+      <c r="R77" s="35">
+        <v>0</v>
+      </c>
+      <c r="S77" s="35">
+        <v>0</v>
+      </c>
+      <c r="T77" s="35">
+        <v>0</v>
+      </c>
+      <c r="U77" s="35">
+        <v>0</v>
+      </c>
+      <c r="V77" s="35">
+        <v>0</v>
+      </c>
+      <c r="W77" s="35">
+        <v>0</v>
+      </c>
+      <c r="X77" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F78" s="35">
+        <v>-9.4339622641509413E-3</v>
+      </c>
+      <c r="G78" s="36">
+        <v>-4.5454545454545414E-2</v>
+      </c>
+      <c r="H78" s="35">
+        <v>0.45833333333333326</v>
+      </c>
+      <c r="I78" s="35">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="J78" s="35">
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="K78" s="35">
+        <v>1.441860465116279</v>
+      </c>
+      <c r="L78" s="35">
+        <v>6.0606060606060552E-2</v>
+      </c>
+      <c r="M78" s="35">
+        <v>0.69354838709677424</v>
+      </c>
+      <c r="N78" s="35">
+        <v>1.2340425531914891</v>
+      </c>
+      <c r="O78" s="35">
+        <v>0</v>
+      </c>
+      <c r="P78" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="35">
+        <v>0</v>
+      </c>
+      <c r="R78" s="35">
+        <v>0</v>
+      </c>
+      <c r="S78" s="35">
+        <v>0</v>
+      </c>
+      <c r="T78" s="35">
+        <v>0</v>
+      </c>
+      <c r="U78" s="35">
+        <v>0</v>
+      </c>
+      <c r="V78" s="35">
+        <v>0</v>
+      </c>
+      <c r="W78" s="35">
+        <v>0</v>
+      </c>
+      <c r="X78" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F79" s="35">
+        <v>-1.9047619047619091E-2</v>
+      </c>
+      <c r="G79" s="36">
+        <v>-2.8301886792452824E-2</v>
+      </c>
+      <c r="H79" s="35">
+        <v>-6.3636363636363602E-2</v>
+      </c>
+      <c r="I79" s="35">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J79" s="35">
+        <v>0.58461538461538454</v>
+      </c>
+      <c r="K79" s="35">
+        <v>0.98076923076923084</v>
+      </c>
+      <c r="L79" s="35">
+        <v>1.3953488372093021</v>
+      </c>
+      <c r="M79" s="35">
+        <v>4.0404040404040442E-2</v>
+      </c>
+      <c r="N79" s="35">
+        <v>0.66129032258064524</v>
+      </c>
+      <c r="O79" s="35">
+        <v>1.1914893617021276</v>
+      </c>
+      <c r="P79" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="35">
+        <v>0</v>
+      </c>
+      <c r="R79" s="35">
+        <v>0</v>
+      </c>
+      <c r="S79" s="35">
+        <v>0</v>
+      </c>
+      <c r="T79" s="35">
+        <v>0</v>
+      </c>
+      <c r="U79" s="35">
+        <v>0</v>
+      </c>
+      <c r="V79" s="35">
+        <v>0</v>
+      </c>
+      <c r="W79" s="35">
+        <v>0</v>
+      </c>
+      <c r="X79" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="F80" s="35">
+        <v>-2.9126213592232997E-2</v>
+      </c>
+      <c r="G80" s="36">
+        <v>-4.7619047619047672E-2</v>
+      </c>
+      <c r="H80" s="35">
+        <v>-5.6603773584905648E-2</v>
+      </c>
+      <c r="I80" s="35">
+        <v>-9.0909090909090939E-2</v>
+      </c>
+      <c r="J80" s="35">
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="K80" s="35">
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="L80" s="35">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="M80" s="35">
+        <v>1.3255813953488373</v>
+      </c>
+      <c r="N80" s="35">
+        <v>1.0101010101010166E-2</v>
+      </c>
+      <c r="O80" s="35">
+        <v>0.61290322580645151</v>
+      </c>
+      <c r="P80" s="35">
+        <v>1.1276595744680851</v>
+      </c>
+      <c r="Q80" s="35">
+        <v>0</v>
+      </c>
+      <c r="R80" s="35">
+        <v>0</v>
+      </c>
+      <c r="S80" s="35">
+        <v>0</v>
+      </c>
+      <c r="T80" s="35">
+        <v>0</v>
+      </c>
+      <c r="U80" s="35">
+        <v>0</v>
+      </c>
+      <c r="V80" s="35">
+        <v>0</v>
+      </c>
+      <c r="W80" s="35">
+        <v>0</v>
+      </c>
+      <c r="X80" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F81" s="35">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="G81" s="36">
+        <v>-0.17475728155339809</v>
+      </c>
+      <c r="H81" s="35">
+        <v>-0.19047619047619047</v>
+      </c>
+      <c r="I81" s="35">
+        <v>-0.19811320754716977</v>
+      </c>
+      <c r="J81" s="35">
+        <v>-0.22727272727272729</v>
+      </c>
+      <c r="K81" s="35">
+        <v>0.18055555555555558</v>
+      </c>
+      <c r="L81" s="35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="M81" s="35">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="N81" s="35">
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="O81" s="35">
+        <v>-0.14141414141414144</v>
+      </c>
+      <c r="P81" s="35">
+        <v>0.37096774193548376</v>
+      </c>
+      <c r="Q81" s="35">
+        <v>0.8085106382978724</v>
+      </c>
+      <c r="R81" s="35">
+        <v>0</v>
+      </c>
+      <c r="S81" s="35">
+        <v>0</v>
+      </c>
+      <c r="T81" s="35">
+        <v>0</v>
+      </c>
+      <c r="U81" s="35">
+        <v>0</v>
+      </c>
+      <c r="V81" s="35">
+        <v>0</v>
+      </c>
+      <c r="W81" s="35">
+        <v>0</v>
+      </c>
+      <c r="X81" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F82" s="35">
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="G82" s="36">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="H82" s="35">
+        <v>-0.12621359223300976</v>
+      </c>
+      <c r="I82" s="35">
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="J82" s="35">
+        <v>-0.15094339622641506</v>
+      </c>
+      <c r="K82" s="35">
+        <v>-0.18181818181818177</v>
+      </c>
+      <c r="L82" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M82" s="35">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N82" s="35">
+        <v>0.73076923076923084</v>
+      </c>
+      <c r="O82" s="35">
+        <v>1.0930232558139537</v>
+      </c>
+      <c r="P82" s="35">
+        <v>-9.0909090909090939E-2</v>
+      </c>
+      <c r="Q82" s="35">
+        <v>0.45161290322580649</v>
+      </c>
+      <c r="R82" s="35">
+        <v>0.91489361702127669</v>
+      </c>
+      <c r="S82" s="35">
+        <v>0</v>
+      </c>
+      <c r="T82" s="35">
+        <v>0</v>
+      </c>
+      <c r="U82" s="35">
+        <v>0</v>
+      </c>
+      <c r="V82" s="35">
+        <v>0</v>
+      </c>
+      <c r="W82" s="35">
+        <v>0</v>
+      </c>
+      <c r="X82" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F83" s="35">
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="G83" s="36">
+        <v>-5.8823529411764719E-2</v>
+      </c>
+      <c r="H83" s="35">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I83" s="35">
+        <v>-0.22330097087378642</v>
+      </c>
+      <c r="J83" s="35">
+        <v>-0.23809523809523814</v>
+      </c>
+      <c r="K83" s="35">
+        <v>-0.24528301886792447</v>
+      </c>
+      <c r="L83" s="35">
+        <v>-0.27272727272727271</v>
+      </c>
+      <c r="M83" s="35">
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="N83" s="35">
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="O83" s="35">
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="P83" s="35">
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="Q83" s="35">
+        <v>-0.19191919191919193</v>
+      </c>
+      <c r="R83" s="35">
+        <v>0.29032258064516125</v>
+      </c>
+      <c r="S83" s="35">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="T83" s="35">
+        <v>0</v>
+      </c>
+      <c r="U83" s="35">
+        <v>0</v>
+      </c>
+      <c r="V83" s="35">
+        <v>0</v>
+      </c>
+      <c r="W83" s="35">
+        <v>0</v>
+      </c>
+      <c r="X83" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F84" s="35">
+        <v>-0.23750000000000004</v>
+      </c>
+      <c r="G84" s="36">
+        <v>-0.32222222222222219</v>
+      </c>
+      <c r="H84" s="35">
+        <v>-0.28235294117647058</v>
+      </c>
+      <c r="I84" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="J84" s="35">
+        <v>-0.40776699029126218</v>
+      </c>
+      <c r="K84" s="35">
+        <v>-0.419047619047619</v>
+      </c>
+      <c r="L84" s="35">
+        <v>-0.42452830188679247</v>
+      </c>
+      <c r="M84" s="35">
+        <v>-0.44545454545454544</v>
+      </c>
+      <c r="N84" s="35">
+        <v>-0.15277777777777779</v>
+      </c>
+      <c r="O84" s="35">
+        <v>-6.1538461538461542E-2</v>
+      </c>
+      <c r="P84" s="35">
+        <v>0.17307692307692313</v>
+      </c>
+      <c r="Q84" s="35">
+        <v>0.41860465116279078</v>
+      </c>
+      <c r="R84" s="35">
+        <v>-0.38383838383838387</v>
+      </c>
+      <c r="S84" s="35">
+        <v>-1.6129032258064502E-2</v>
+      </c>
+      <c r="T84" s="35">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="U84" s="35">
+        <v>0</v>
+      </c>
+      <c r="V84" s="35">
+        <v>0</v>
+      </c>
+      <c r="W84" s="35">
+        <v>0</v>
+      </c>
+      <c r="X84" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F85" s="35">
+        <v>-1.6393442622950838E-2</v>
+      </c>
+      <c r="G85" s="36">
+        <v>-0.25</v>
+      </c>
+      <c r="H85" s="35">
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="I85" s="35">
+        <v>-0.29411764705882348</v>
+      </c>
+      <c r="J85" s="35">
+        <v>-0.4</v>
+      </c>
+      <c r="K85" s="35">
+        <v>-0.41747572815533984</v>
+      </c>
+      <c r="L85" s="35">
+        <v>-0.4285714285714286</v>
+      </c>
+      <c r="M85" s="35">
+        <v>-0.43396226415094341</v>
+      </c>
+      <c r="N85" s="35">
+        <v>-0.45454545454545459</v>
+      </c>
+      <c r="O85" s="35">
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="P85" s="35">
+        <v>-7.6923076923076872E-2</v>
+      </c>
+      <c r="Q85" s="35">
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="R85" s="35">
+        <v>0.39534883720930236</v>
+      </c>
+      <c r="S85" s="35">
+        <v>-0.39393939393939392</v>
+      </c>
+      <c r="T85" s="35">
+        <v>-3.2258064516129004E-2</v>
+      </c>
+      <c r="U85" s="35">
+        <v>0.27659574468085113</v>
+      </c>
+      <c r="V85" s="35">
+        <v>0</v>
+      </c>
+      <c r="W85" s="35">
+        <v>0</v>
+      </c>
+      <c r="X85" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F86" s="35">
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="G86" s="36">
+        <v>-9.8360655737704916E-2</v>
+      </c>
+      <c r="H86" s="35">
+        <v>-0.3125</v>
+      </c>
+      <c r="I86" s="35">
+        <v>-0.38888888888888884</v>
+      </c>
+      <c r="J86" s="35">
+        <v>-0.3529411764705882</v>
+      </c>
+      <c r="K86" s="35">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="L86" s="35">
+        <v>-0.46601941747572817</v>
+      </c>
+      <c r="M86" s="35">
+        <v>-0.47619047619047616</v>
+      </c>
+      <c r="N86" s="35">
+        <v>-0.48113207547169812</v>
+      </c>
+      <c r="O86" s="35">
+        <v>-0.5</v>
+      </c>
+      <c r="P86" s="35">
+        <v>-0.23611111111111116</v>
+      </c>
+      <c r="Q86" s="35">
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="R86" s="35">
+        <v>5.7692307692307709E-2</v>
+      </c>
+      <c r="S86" s="35">
+        <v>0.27906976744186052</v>
+      </c>
+      <c r="T86" s="35">
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="U86" s="35">
+        <v>-0.11290322580645162</v>
+      </c>
+      <c r="V86" s="35">
+        <v>0.17021276595744683</v>
+      </c>
+      <c r="W86" s="35">
+        <v>0</v>
+      </c>
+      <c r="X86" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F87" s="35">
+        <v>-5.4545454545454564E-2</v>
+      </c>
+      <c r="G87" s="36">
+        <v>-0.1333333333333333</v>
+      </c>
+      <c r="H87" s="35">
+        <v>-0.14754098360655743</v>
+      </c>
+      <c r="I87" s="35">
+        <v>-0.35</v>
+      </c>
+      <c r="J87" s="35">
+        <v>-0.42222222222222228</v>
+      </c>
+      <c r="K87" s="35">
+        <v>-0.38823529411764701</v>
+      </c>
+      <c r="L87" s="35">
+        <v>-0.48</v>
+      </c>
+      <c r="M87" s="35">
+        <v>-0.49514563106796117</v>
+      </c>
+      <c r="N87" s="35">
+        <v>-0.50476190476190474</v>
+      </c>
+      <c r="O87" s="35">
+        <v>-0.50943396226415094</v>
+      </c>
+      <c r="P87" s="35">
+        <v>-0.52727272727272734</v>
+      </c>
+      <c r="Q87" s="35">
+        <v>-0.27777777777777779</v>
+      </c>
+      <c r="R87" s="35">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="S87" s="35">
+        <v>0</v>
+      </c>
+      <c r="T87" s="35">
+        <v>0.20930232558139528</v>
+      </c>
+      <c r="U87" s="35">
+        <v>-0.4747474747474747</v>
+      </c>
+      <c r="V87" s="35">
+        <v>-0.16129032258064513</v>
+      </c>
+      <c r="W87" s="35">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="X87" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F88" s="35">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="G88" s="36">
+        <v>0.36363636363636354</v>
+      </c>
+      <c r="H88" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="I88" s="35">
+        <v>0.22950819672131151</v>
+      </c>
+      <c r="J88" s="35">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="K88" s="35">
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="L88" s="35">
+        <v>-0.11764705882352944</v>
+      </c>
+      <c r="M88" s="35">
+        <v>-0.25</v>
+      </c>
+      <c r="N88" s="35">
+        <v>-0.27184466019417475</v>
+      </c>
+      <c r="O88" s="35">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="P88" s="35">
+        <v>-0.29245283018867929</v>
+      </c>
+      <c r="Q88" s="35">
+        <v>-0.31818181818181823</v>
+      </c>
+      <c r="R88" s="35">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="S88" s="35">
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="T88" s="35">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="U88" s="35">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="V88" s="35">
+        <v>-0.24242424242424243</v>
+      </c>
+      <c r="W88" s="35">
+        <v>0.20967741935483875</v>
+      </c>
+      <c r="X88" s="35">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="Y88" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F89" s="35">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="G89" s="36">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="H89" s="35">
+        <v>0.52727272727272734</v>
+      </c>
+      <c r="I89" s="35">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J89" s="35">
+        <v>0.37704918032786883</v>
+      </c>
+      <c r="K89" s="35">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L89" s="35">
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="M89" s="35">
+        <v>-1.1764705882352899E-2</v>
+      </c>
+      <c r="N89" s="35">
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="O89" s="35">
+        <v>-0.18446601941747576</v>
+      </c>
+      <c r="P89" s="35">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="Q89" s="35">
+        <v>-0.20754716981132071</v>
+      </c>
+      <c r="R89" s="35">
+        <v>-0.23636363636363633</v>
+      </c>
+      <c r="S89" s="35">
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="T89" s="35">
+        <v>0.29230769230769238</v>
+      </c>
+      <c r="U89" s="35">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="V89" s="35">
+        <v>0.95348837209302317</v>
+      </c>
+      <c r="W89" s="35">
+        <v>-0.15151515151515149</v>
+      </c>
+      <c r="X89" s="35">
+        <v>0.35483870967741926</v>
+      </c>
+      <c r="Y89" s="35">
+        <v>0.7872340425531914</v>
+      </c>
+      <c r="Z89" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F90" s="35">
+        <v>0.11904761904761907</v>
+      </c>
+      <c r="G90" s="36">
+        <v>0.25333333333333341</v>
+      </c>
+      <c r="H90" s="35">
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="I90" s="35">
+        <v>0.70909090909090899</v>
+      </c>
+      <c r="J90" s="35">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K90" s="35">
+        <v>0.54098360655737698</v>
+      </c>
+      <c r="L90" s="35">
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="M90" s="35">
+        <v>4.4444444444444509E-2</v>
+      </c>
+      <c r="N90" s="35">
+        <v>0.10588235294117654</v>
+      </c>
+      <c r="O90" s="35">
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="P90" s="35">
+        <v>-8.737864077669899E-2</v>
+      </c>
+      <c r="Q90" s="35">
+        <v>-0.10476190476190472</v>
+      </c>
+      <c r="R90" s="35">
+        <v>-0.1132075471698113</v>
+      </c>
+      <c r="S90" s="35">
+        <v>-0.1454545454545455</v>
+      </c>
+      <c r="T90" s="35">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="U90" s="35">
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="V90" s="35">
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="W90" s="35">
+        <v>1.1860465116279069</v>
+      </c>
+      <c r="X90" s="35">
+        <v>-5.0505050505050497E-2</v>
+      </c>
+      <c r="Y90" s="35">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="Z90" s="35">
         <v>1</v>
       </c>
-      <c r="G69" s="40">
-        <v>1</v>
-      </c>
-      <c r="H69" s="39">
-        <v>1</v>
-      </c>
-      <c r="I69" s="39">
-        <v>1</v>
-      </c>
-      <c r="J69" s="39">
-        <v>1</v>
-      </c>
-      <c r="K69" s="39">
-        <v>1</v>
-      </c>
-      <c r="L69" s="39">
-        <v>1</v>
-      </c>
-      <c r="M69" s="39">
-        <v>1</v>
-      </c>
-      <c r="N69" s="39">
-        <v>1</v>
-      </c>
-      <c r="O69" s="39">
-        <v>1</v>
-      </c>
-      <c r="P69" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="39">
-        <v>1</v>
-      </c>
-      <c r="R69" s="39">
-        <v>1</v>
-      </c>
-      <c r="S69" s="39">
-        <v>1</v>
-      </c>
-      <c r="T69" s="39">
-        <v>1</v>
-      </c>
-      <c r="U69" s="39">
-        <v>1</v>
-      </c>
-      <c r="V69" s="39">
-        <v>1</v>
-      </c>
-      <c r="W69" s="39">
-        <v>1</v>
-      </c>
-      <c r="X69" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F70" s="39">
-        <v>1.3191489361702127</v>
-      </c>
-      <c r="G70" s="40">
-        <v>1</v>
-      </c>
-      <c r="H70" s="39">
-        <v>1</v>
-      </c>
-      <c r="I70" s="39">
-        <v>1</v>
-      </c>
-      <c r="J70" s="39">
-        <v>1</v>
-      </c>
-      <c r="K70" s="39">
-        <v>1</v>
-      </c>
-      <c r="L70" s="39">
-        <v>1</v>
-      </c>
-      <c r="M70" s="39">
-        <v>1</v>
-      </c>
-      <c r="N70" s="39">
-        <v>1</v>
-      </c>
-      <c r="O70" s="39">
-        <v>1</v>
-      </c>
-      <c r="P70" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="39">
-        <v>1</v>
-      </c>
-      <c r="R70" s="39">
-        <v>1</v>
-      </c>
-      <c r="S70" s="39">
-        <v>1</v>
-      </c>
-      <c r="T70" s="39">
-        <v>1</v>
-      </c>
-      <c r="U70" s="39">
-        <v>1</v>
-      </c>
-      <c r="V70" s="39">
-        <v>1</v>
-      </c>
-      <c r="W70" s="39">
-        <v>1</v>
-      </c>
-      <c r="X70" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y70" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F71" s="39">
-        <v>1.596774193548387</v>
-      </c>
-      <c r="G71" s="40">
-        <v>2.1063829787234041</v>
-      </c>
-      <c r="H71" s="39">
-        <v>1</v>
-      </c>
-      <c r="I71" s="39">
-        <v>1</v>
-      </c>
-      <c r="J71" s="39">
-        <v>1</v>
-      </c>
-      <c r="K71" s="39">
-        <v>1</v>
-      </c>
-      <c r="L71" s="39">
-        <v>1</v>
-      </c>
-      <c r="M71" s="39">
-        <v>1</v>
-      </c>
-      <c r="N71" s="39">
-        <v>1</v>
-      </c>
-      <c r="O71" s="39">
-        <v>1</v>
-      </c>
-      <c r="P71" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="39">
-        <v>1</v>
-      </c>
-      <c r="R71" s="39">
-        <v>1</v>
-      </c>
-      <c r="S71" s="39">
-        <v>1</v>
-      </c>
-      <c r="T71" s="39">
-        <v>1</v>
-      </c>
-      <c r="U71" s="39">
-        <v>1</v>
-      </c>
-      <c r="V71" s="39">
-        <v>1</v>
-      </c>
-      <c r="W71" s="39">
-        <v>1</v>
-      </c>
-      <c r="X71" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F72" s="39">
-        <v>0.43434343434343436</v>
-      </c>
-      <c r="G72" s="40">
+      <c r="AA90" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F91" s="35">
+        <v>8.5106382978723305E-2</v>
+      </c>
+      <c r="G91" s="36">
+        <v>0.21428571428571419</v>
+      </c>
+      <c r="H91" s="35">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="I91" s="35">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="J91" s="35">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="K91" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="L91" s="35">
+        <v>0.67213114754098369</v>
+      </c>
+      <c r="M91" s="35">
+        <v>0.27499999999999991</v>
+      </c>
+      <c r="N91" s="35">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="O91" s="35">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="P91" s="35">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="Q91" s="35">
+        <v>-9.7087378640776656E-3</v>
+      </c>
+      <c r="R91" s="35">
+        <v>-2.8571428571428581E-2</v>
+      </c>
+      <c r="S91" s="35">
+        <v>-3.7735849056603765E-2</v>
+      </c>
+      <c r="T91" s="35">
+        <v>-7.2727272727272751E-2</v>
+      </c>
+      <c r="U91" s="35">
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="V91" s="35">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="W91" s="35">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="X91" s="35">
+        <v>1.3720930232558142</v>
+      </c>
+      <c r="Y91" s="35">
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="Z91" s="35">
+        <v>0.64516129032258074</v>
+      </c>
+      <c r="AA91" s="35">
+        <v>1.1702127659574466</v>
+      </c>
+      <c r="AB91" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F92" s="35">
+        <v>2.9411764705882248E-2</v>
+      </c>
+      <c r="G92" s="36">
+        <v>0.11702127659574457</v>
+      </c>
+      <c r="H92" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="I92" s="35">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J92" s="35">
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="K92" s="35">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="L92" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="M92" s="35">
+        <v>0.72131147540983598</v>
+      </c>
+      <c r="N92" s="35">
+        <v>0.3125</v>
+      </c>
+      <c r="O92" s="35">
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="P92" s="35">
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="Q92" s="35">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R92" s="35">
+        <v>1.9417475728155331E-2</v>
+      </c>
+      <c r="S92" s="35">
+        <v>0</v>
+      </c>
+      <c r="T92" s="35">
+        <v>-9.4339622641509413E-3</v>
+      </c>
+      <c r="U92" s="35">
+        <v>-4.5454545454545414E-2</v>
+      </c>
+      <c r="V92" s="35">
+        <v>0.45833333333333326</v>
+      </c>
+      <c r="W92" s="35">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="X92" s="35">
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="Y92" s="35">
+        <v>1.441860465116279</v>
+      </c>
+      <c r="Z92" s="35">
+        <v>6.0606060606060552E-2</v>
+      </c>
+      <c r="AA92" s="35">
         <v>0.69354838709677424</v>
       </c>
-      <c r="H72" s="39">
-        <v>0.91489361702127658</v>
-      </c>
-      <c r="I72" s="39">
-        <v>1</v>
-      </c>
-      <c r="J72" s="39">
-        <v>1</v>
-      </c>
-      <c r="K72" s="39">
-        <v>1</v>
-      </c>
-      <c r="L72" s="39">
-        <v>1</v>
-      </c>
-      <c r="M72" s="39">
-        <v>1</v>
-      </c>
-      <c r="N72" s="39">
-        <v>1</v>
-      </c>
-      <c r="O72" s="39">
-        <v>1</v>
-      </c>
-      <c r="P72" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="39">
-        <v>1</v>
-      </c>
-      <c r="R72" s="39">
-        <v>1</v>
-      </c>
-      <c r="S72" s="39">
-        <v>1</v>
-      </c>
-      <c r="T72" s="39">
-        <v>1</v>
-      </c>
-      <c r="U72" s="39">
-        <v>1</v>
-      </c>
-      <c r="V72" s="39">
-        <v>1</v>
-      </c>
-      <c r="W72" s="39">
-        <v>1</v>
-      </c>
-      <c r="X72" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F73" s="39">
-        <v>1.2093023255813953</v>
-      </c>
-      <c r="G73" s="40">
-        <v>0.5252525252525253</v>
-      </c>
-      <c r="H73" s="39">
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="I73" s="39">
-        <v>1.1063829787234043</v>
-      </c>
-      <c r="J73" s="39">
-        <v>1</v>
-      </c>
-      <c r="K73" s="39">
-        <v>1</v>
-      </c>
-      <c r="L73" s="39">
-        <v>1</v>
-      </c>
-      <c r="M73" s="39">
-        <v>1</v>
-      </c>
-      <c r="N73" s="39">
-        <v>1</v>
-      </c>
-      <c r="O73" s="39">
-        <v>1</v>
-      </c>
-      <c r="P73" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="39">
-        <v>1</v>
-      </c>
-      <c r="R73" s="39">
-        <v>1</v>
-      </c>
-      <c r="S73" s="39">
-        <v>1</v>
-      </c>
-      <c r="T73" s="39">
-        <v>1</v>
-      </c>
-      <c r="U73" s="39">
-        <v>1</v>
-      </c>
-      <c r="V73" s="39">
-        <v>1</v>
-      </c>
-      <c r="W73" s="39">
-        <v>1</v>
-      </c>
-      <c r="X73" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F74" s="39">
-        <v>1.25</v>
-      </c>
-      <c r="G74" s="40">
-        <v>1.5116279069767442</v>
-      </c>
-      <c r="H74" s="39">
-        <v>0.65656565656565657</v>
-      </c>
-      <c r="I74" s="39">
-        <v>1.0483870967741935</v>
-      </c>
-      <c r="J74" s="39">
-        <v>1.3829787234042554</v>
-      </c>
-      <c r="K74" s="39">
-        <v>1</v>
-      </c>
-      <c r="L74" s="39">
-        <v>1</v>
-      </c>
-      <c r="M74" s="39">
-        <v>1</v>
-      </c>
-      <c r="N74" s="39">
-        <v>1</v>
-      </c>
-      <c r="O74" s="39">
-        <v>1</v>
-      </c>
-      <c r="P74" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="39">
-        <v>1</v>
-      </c>
-      <c r="R74" s="39">
-        <v>1</v>
-      </c>
-      <c r="S74" s="39">
-        <v>1</v>
-      </c>
-      <c r="T74" s="39">
-        <v>1</v>
-      </c>
-      <c r="U74" s="39">
-        <v>1</v>
-      </c>
-      <c r="V74" s="39">
-        <v>1</v>
-      </c>
-      <c r="W74" s="39">
-        <v>1</v>
-      </c>
-      <c r="X74" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F75" s="39">
-        <v>1.1076923076923078</v>
-      </c>
-      <c r="G75" s="40">
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="H75" s="39">
-        <v>1.6744186046511629</v>
-      </c>
-      <c r="I75" s="39">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="J75" s="39">
-        <v>1.1612903225806452</v>
-      </c>
-      <c r="K75" s="39">
-        <v>1.5319148936170213</v>
-      </c>
-      <c r="L75" s="39">
-        <v>1</v>
-      </c>
-      <c r="M75" s="39">
-        <v>1</v>
-      </c>
-      <c r="N75" s="39">
-        <v>1</v>
-      </c>
-      <c r="O75" s="39">
-        <v>1</v>
-      </c>
-      <c r="P75" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="39">
-        <v>1</v>
-      </c>
-      <c r="R75" s="39">
-        <v>1</v>
-      </c>
-      <c r="S75" s="39">
-        <v>1</v>
-      </c>
-      <c r="T75" s="39">
-        <v>1</v>
-      </c>
-      <c r="U75" s="39">
-        <v>1</v>
-      </c>
-      <c r="V75" s="39">
-        <v>1</v>
-      </c>
-      <c r="W75" s="39">
-        <v>1</v>
-      </c>
-      <c r="X75" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F76" s="39">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="G76" s="40">
-        <v>1.6923076923076923</v>
-      </c>
-      <c r="H76" s="39">
-        <v>2.1153846153846154</v>
-      </c>
-      <c r="I76" s="39">
-        <v>2.558139534883721</v>
-      </c>
-      <c r="J76" s="39">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="K76" s="39">
-        <v>1.7741935483870968</v>
-      </c>
-      <c r="L76" s="39">
-        <v>2.3404255319148937</v>
-      </c>
-      <c r="M76" s="39">
-        <v>1</v>
-      </c>
-      <c r="N76" s="39">
-        <v>1</v>
-      </c>
-      <c r="O76" s="39">
-        <v>1</v>
-      </c>
-      <c r="P76" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="39">
-        <v>1</v>
-      </c>
-      <c r="R76" s="39">
-        <v>1</v>
-      </c>
-      <c r="S76" s="39">
-        <v>1</v>
-      </c>
-      <c r="T76" s="39">
-        <v>1</v>
-      </c>
-      <c r="U76" s="39">
-        <v>1</v>
-      </c>
-      <c r="V76" s="39">
-        <v>1</v>
-      </c>
-      <c r="W76" s="39">
-        <v>1</v>
-      </c>
-      <c r="X76" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z76" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB76" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F77" s="39">
-        <v>0.96363636363636362</v>
-      </c>
-      <c r="G77" s="40">
-        <v>1.4722222222222223</v>
-      </c>
-      <c r="H77" s="39">
-        <v>1.6307692307692307</v>
-      </c>
-      <c r="I77" s="39">
-        <v>2.0384615384615383</v>
-      </c>
-      <c r="J77" s="39">
-        <v>2.4651162790697674</v>
-      </c>
-      <c r="K77" s="39">
-        <v>1.0707070707070707</v>
-      </c>
-      <c r="L77" s="39">
-        <v>1.7096774193548387</v>
-      </c>
-      <c r="M77" s="39">
-        <v>2.2553191489361701</v>
-      </c>
-      <c r="N77" s="39">
-        <v>1</v>
-      </c>
-      <c r="O77" s="39">
-        <v>1</v>
-      </c>
-      <c r="P77" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="39">
-        <v>1</v>
-      </c>
-      <c r="R77" s="39">
-        <v>1</v>
-      </c>
-      <c r="S77" s="39">
-        <v>1</v>
-      </c>
-      <c r="T77" s="39">
-        <v>1</v>
-      </c>
-      <c r="U77" s="39">
-        <v>1</v>
-      </c>
-      <c r="V77" s="39">
-        <v>1</v>
-      </c>
-      <c r="W77" s="39">
-        <v>1</v>
-      </c>
-      <c r="X77" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z77" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA77" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB77" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F78" s="39">
-        <v>0.99056603773584906</v>
-      </c>
-      <c r="G78" s="40">
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="H78" s="39">
-        <v>1.4583333333333333</v>
-      </c>
-      <c r="I78" s="39">
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="J78" s="39">
-        <v>2.0192307692307692</v>
-      </c>
-      <c r="K78" s="39">
-        <v>2.441860465116279</v>
-      </c>
-      <c r="L78" s="39">
-        <v>1.0606060606060606</v>
-      </c>
-      <c r="M78" s="39">
-        <v>1.6935483870967742</v>
-      </c>
-      <c r="N78" s="39">
-        <v>2.2340425531914891</v>
-      </c>
-      <c r="O78" s="39">
-        <v>1</v>
-      </c>
-      <c r="P78" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="39">
-        <v>1</v>
-      </c>
-      <c r="R78" s="39">
-        <v>1</v>
-      </c>
-      <c r="S78" s="39">
-        <v>1</v>
-      </c>
-      <c r="T78" s="39">
-        <v>1</v>
-      </c>
-      <c r="U78" s="39">
-        <v>1</v>
-      </c>
-      <c r="V78" s="39">
-        <v>1</v>
-      </c>
-      <c r="W78" s="39">
-        <v>1</v>
-      </c>
-      <c r="X78" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z78" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB78" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F79" s="39">
-        <v>0.98095238095238091</v>
-      </c>
-      <c r="G79" s="40">
-        <v>0.97169811320754718</v>
-      </c>
-      <c r="H79" s="39">
-        <v>0.9363636363636364</v>
-      </c>
-      <c r="I79" s="39">
-        <v>1.4305555555555556</v>
-      </c>
-      <c r="J79" s="39">
-        <v>1.5846153846153845</v>
-      </c>
-      <c r="K79" s="39">
-        <v>1.9807692307692308</v>
-      </c>
-      <c r="L79" s="39">
-        <v>2.3953488372093021</v>
-      </c>
-      <c r="M79" s="39">
-        <v>1.0404040404040404</v>
-      </c>
-      <c r="N79" s="39">
-        <v>1.6612903225806452</v>
-      </c>
-      <c r="O79" s="39">
-        <v>2.1914893617021276</v>
-      </c>
-      <c r="P79" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="39">
-        <v>1</v>
-      </c>
-      <c r="R79" s="39">
-        <v>1</v>
-      </c>
-      <c r="S79" s="39">
-        <v>1</v>
-      </c>
-      <c r="T79" s="39">
-        <v>1</v>
-      </c>
-      <c r="U79" s="39">
-        <v>1</v>
-      </c>
-      <c r="V79" s="39">
-        <v>1</v>
-      </c>
-      <c r="W79" s="39">
-        <v>1</v>
-      </c>
-      <c r="X79" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z79" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA79" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="F80" s="39">
-        <v>0.970873786407767</v>
-      </c>
-      <c r="G80" s="40">
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="H80" s="39">
-        <v>0.94339622641509435</v>
-      </c>
-      <c r="I80" s="39">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="J80" s="39">
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="K80" s="39">
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="L80" s="39">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="M80" s="39">
-        <v>2.3255813953488373</v>
-      </c>
-      <c r="N80" s="39">
-        <v>1.0101010101010102</v>
-      </c>
-      <c r="O80" s="39">
-        <v>1.6129032258064515</v>
-      </c>
-      <c r="P80" s="39">
-        <v>2.1276595744680851</v>
-      </c>
-      <c r="Q80" s="39">
-        <v>1</v>
-      </c>
-      <c r="R80" s="39">
-        <v>1</v>
-      </c>
-      <c r="S80" s="39">
-        <v>1</v>
-      </c>
-      <c r="T80" s="39">
-        <v>1</v>
-      </c>
-      <c r="U80" s="39">
-        <v>1</v>
-      </c>
-      <c r="V80" s="39">
-        <v>1</v>
-      </c>
-      <c r="W80" s="39">
-        <v>1</v>
-      </c>
-      <c r="X80" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA80" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F81" s="39">
-        <v>0.85</v>
-      </c>
-      <c r="G81" s="40">
-        <v>0.82524271844660191</v>
-      </c>
-      <c r="H81" s="39">
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="I81" s="39">
-        <v>0.80188679245283023</v>
-      </c>
-      <c r="J81" s="39">
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="K81" s="39">
-        <v>1.1805555555555556</v>
-      </c>
-      <c r="L81" s="39">
-        <v>1.3076923076923077</v>
-      </c>
-      <c r="M81" s="39">
-        <v>1.6346153846153846</v>
-      </c>
-      <c r="N81" s="39">
-        <v>1.9767441860465116</v>
-      </c>
-      <c r="O81" s="39">
-        <v>0.85858585858585856</v>
-      </c>
-      <c r="P81" s="39">
-        <v>1.3709677419354838</v>
-      </c>
-      <c r="Q81" s="39">
-        <v>1.8085106382978724</v>
-      </c>
-      <c r="R81" s="39">
-        <v>1</v>
-      </c>
-      <c r="S81" s="39">
-        <v>1</v>
-      </c>
-      <c r="T81" s="39">
-        <v>1</v>
-      </c>
-      <c r="U81" s="39">
-        <v>1</v>
-      </c>
-      <c r="V81" s="39">
-        <v>1</v>
-      </c>
-      <c r="W81" s="39">
-        <v>1</v>
-      </c>
-      <c r="X81" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y81" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB81" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC81" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F82" s="39">
-        <v>1.0588235294117647</v>
-      </c>
-      <c r="G82" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="H82" s="39">
-        <v>0.87378640776699024</v>
-      </c>
-      <c r="I82" s="39">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J82" s="39">
-        <v>0.84905660377358494</v>
-      </c>
-      <c r="K82" s="39">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="L82" s="39">
-        <v>1.25</v>
-      </c>
-      <c r="M82" s="39">
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="N82" s="39">
-        <v>1.7307692307692308</v>
-      </c>
-      <c r="O82" s="39">
-        <v>2.0930232558139537</v>
-      </c>
-      <c r="P82" s="39">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="Q82" s="39">
-        <v>1.4516129032258065</v>
-      </c>
-      <c r="R82" s="39">
-        <v>1.9148936170212767</v>
-      </c>
-      <c r="S82" s="39">
-        <v>1</v>
-      </c>
-      <c r="T82" s="39">
-        <v>1</v>
-      </c>
-      <c r="U82" s="39">
-        <v>1</v>
-      </c>
-      <c r="V82" s="39">
-        <v>1</v>
-      </c>
-      <c r="W82" s="39">
-        <v>1</v>
-      </c>
-      <c r="X82" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z82" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA82" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F83" s="39">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="G83" s="40">
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="H83" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="I83" s="39">
-        <v>0.77669902912621358</v>
-      </c>
-      <c r="J83" s="39">
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="K83" s="39">
-        <v>0.75471698113207553</v>
-      </c>
-      <c r="L83" s="39">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M83" s="39">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="N83" s="39">
-        <v>1.2307692307692308</v>
-      </c>
-      <c r="O83" s="39">
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="P83" s="39">
-        <v>1.8604651162790697</v>
-      </c>
-      <c r="Q83" s="39">
-        <v>0.80808080808080807</v>
-      </c>
-      <c r="R83" s="39">
-        <v>1.2903225806451613</v>
-      </c>
-      <c r="S83" s="39">
-        <v>1.7021276595744681</v>
-      </c>
-      <c r="T83" s="39">
-        <v>1</v>
-      </c>
-      <c r="U83" s="39">
-        <v>1</v>
-      </c>
-      <c r="V83" s="39">
-        <v>1</v>
-      </c>
-      <c r="W83" s="39">
-        <v>1</v>
-      </c>
-      <c r="X83" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y83" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA83" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB83" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F84" s="39">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="G84" s="40">
-        <v>0.67777777777777781</v>
-      </c>
-      <c r="H84" s="39">
-        <v>0.71764705882352942</v>
-      </c>
-      <c r="I84" s="39">
-        <v>0.61</v>
-      </c>
-      <c r="J84" s="39">
-        <v>0.59223300970873782</v>
-      </c>
-      <c r="K84" s="39">
-        <v>0.580952380952381</v>
-      </c>
-      <c r="L84" s="39">
-        <v>0.57547169811320753</v>
-      </c>
-      <c r="M84" s="39">
-        <v>0.55454545454545456</v>
-      </c>
-      <c r="N84" s="39">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="O84" s="39">
-        <v>0.93846153846153846</v>
-      </c>
-      <c r="P84" s="39">
-        <v>1.1730769230769231</v>
-      </c>
-      <c r="Q84" s="39">
-        <v>1.4186046511627908</v>
-      </c>
-      <c r="R84" s="39">
-        <v>0.61616161616161613</v>
-      </c>
-      <c r="S84" s="39">
-        <v>0.9838709677419355</v>
-      </c>
-      <c r="T84" s="39">
-        <v>1.2978723404255319</v>
-      </c>
-      <c r="U84" s="39">
-        <v>1</v>
-      </c>
-      <c r="V84" s="39">
-        <v>1</v>
-      </c>
-      <c r="W84" s="39">
-        <v>1</v>
-      </c>
-      <c r="X84" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB84" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F85" s="39">
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G85" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="H85" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I85" s="39">
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="J85" s="39">
-        <v>0.6</v>
-      </c>
-      <c r="K85" s="39">
-        <v>0.58252427184466016</v>
-      </c>
-      <c r="L85" s="39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M85" s="39">
-        <v>0.56603773584905659</v>
-      </c>
-      <c r="N85" s="39">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O85" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P85" s="39">
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="Q85" s="39">
-        <v>1.1538461538461537</v>
-      </c>
-      <c r="R85" s="39">
-        <v>1.3953488372093024</v>
-      </c>
-      <c r="S85" s="39">
-        <v>0.60606060606060608</v>
-      </c>
-      <c r="T85" s="39">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="U85" s="39">
-        <v>1.2765957446808511</v>
-      </c>
-      <c r="V85" s="39">
-        <v>1</v>
-      </c>
-      <c r="W85" s="39">
-        <v>1</v>
-      </c>
-      <c r="X85" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA85" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F86" s="39">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G86" s="40">
-        <v>0.90163934426229508</v>
-      </c>
-      <c r="H86" s="39">
-        <v>0.6875</v>
-      </c>
-      <c r="I86" s="39">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="J86" s="39">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="K86" s="39">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L86" s="39">
-        <v>0.53398058252427183</v>
-      </c>
-      <c r="M86" s="39">
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="N86" s="39">
-        <v>0.51886792452830188</v>
-      </c>
-      <c r="O86" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="P86" s="39">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="Q86" s="39">
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="R86" s="39">
-        <v>1.0576923076923077</v>
-      </c>
-      <c r="S86" s="39">
-        <v>1.2790697674418605</v>
-      </c>
-      <c r="T86" s="39">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="U86" s="39">
-        <v>0.88709677419354838</v>
-      </c>
-      <c r="V86" s="39">
-        <v>1.1702127659574468</v>
-      </c>
-      <c r="W86" s="39">
-        <v>1</v>
-      </c>
-      <c r="X86" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB86" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F87" s="39">
-        <v>0.94545454545454544</v>
-      </c>
-      <c r="G87" s="40">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H87" s="39">
-        <v>0.85245901639344257</v>
-      </c>
-      <c r="I87" s="39">
-        <v>0.65</v>
-      </c>
-      <c r="J87" s="39">
-        <v>0.57777777777777772</v>
-      </c>
-      <c r="K87" s="39">
-        <v>0.61176470588235299</v>
-      </c>
-      <c r="L87" s="39">
-        <v>0.52</v>
-      </c>
-      <c r="M87" s="39">
-        <v>0.50485436893203883</v>
-      </c>
-      <c r="N87" s="39">
-        <v>0.49523809523809526</v>
-      </c>
-      <c r="O87" s="39">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="P87" s="39">
-        <v>0.47272727272727272</v>
-      </c>
-      <c r="Q87" s="39">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="R87" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="S87" s="39">
-        <v>1</v>
-      </c>
-      <c r="T87" s="39">
-        <v>1.2093023255813953</v>
-      </c>
-      <c r="U87" s="39">
-        <v>0.5252525252525253</v>
-      </c>
-      <c r="V87" s="39">
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="W87" s="39">
-        <v>1.1063829787234043</v>
-      </c>
-      <c r="X87" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB87" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F88" s="39">
-        <v>1.4423076923076923</v>
-      </c>
-      <c r="G88" s="40">
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="H88" s="39">
-        <v>1.25</v>
-      </c>
-      <c r="I88" s="39">
-        <v>1.2295081967213115</v>
-      </c>
-      <c r="J88" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="K88" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L88" s="39">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="M88" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="N88" s="39">
-        <v>0.72815533980582525</v>
-      </c>
-      <c r="O88" s="39">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P88" s="39">
-        <v>0.70754716981132071</v>
-      </c>
-      <c r="Q88" s="39">
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="R88" s="39">
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="S88" s="39">
-        <v>1.1538461538461537</v>
-      </c>
-      <c r="T88" s="39">
-        <v>1.4423076923076923</v>
-      </c>
-      <c r="U88" s="39">
-        <v>1.7441860465116279</v>
-      </c>
-      <c r="V88" s="39">
-        <v>0.75757575757575757</v>
-      </c>
-      <c r="W88" s="39">
-        <v>1.2096774193548387</v>
-      </c>
-      <c r="X88" s="39">
-        <v>1.5957446808510638</v>
-      </c>
-      <c r="Y88" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z88" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB88" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F89" s="39">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G89" s="40">
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="H89" s="39">
-        <v>1.5272727272727273</v>
-      </c>
-      <c r="I89" s="39">
-        <v>1.4</v>
-      </c>
-      <c r="J89" s="39">
-        <v>1.3770491803278688</v>
-      </c>
-      <c r="K89" s="39">
-        <v>1.05</v>
-      </c>
-      <c r="L89" s="39">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="M89" s="39">
-        <v>0.9882352941176471</v>
-      </c>
-      <c r="N89" s="39">
-        <v>0.84</v>
-      </c>
-      <c r="O89" s="39">
-        <v>0.81553398058252424</v>
-      </c>
-      <c r="P89" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="Q89" s="39">
-        <v>0.79245283018867929</v>
-      </c>
-      <c r="R89" s="39">
-        <v>0.76363636363636367</v>
-      </c>
-      <c r="S89" s="39">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="T89" s="39">
-        <v>1.2923076923076924</v>
-      </c>
-      <c r="U89" s="39">
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="V89" s="39">
-        <v>1.9534883720930232</v>
-      </c>
-      <c r="W89" s="39">
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="X89" s="39">
-        <v>1.3548387096774193</v>
-      </c>
-      <c r="Y89" s="39">
-        <v>1.7872340425531914</v>
-      </c>
-      <c r="Z89" s="39">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F90" s="39">
-        <v>1.1190476190476191</v>
-      </c>
-      <c r="G90" s="40">
-        <v>1.2533333333333334</v>
-      </c>
-      <c r="H90" s="39">
-        <v>1.8076923076923077</v>
-      </c>
-      <c r="I90" s="39">
-        <v>1.709090909090909</v>
-      </c>
-      <c r="J90" s="39">
-        <v>1.5666666666666667</v>
-      </c>
-      <c r="K90" s="39">
-        <v>1.540983606557377</v>
-      </c>
-      <c r="L90" s="39">
-        <v>1.175</v>
-      </c>
-      <c r="M90" s="39">
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="N90" s="39">
-        <v>1.1058823529411765</v>
-      </c>
-      <c r="O90" s="39">
-        <v>0.94</v>
-      </c>
-      <c r="P90" s="39">
-        <v>0.91262135922330101</v>
-      </c>
-      <c r="Q90" s="39">
-        <v>0.89523809523809528</v>
-      </c>
-      <c r="R90" s="39">
-        <v>0.8867924528301887</v>
-      </c>
-      <c r="S90" s="39">
-        <v>0.8545454545454545</v>
-      </c>
-      <c r="T90" s="39">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="U90" s="39">
-        <v>1.4461538461538461</v>
-      </c>
-      <c r="V90" s="39">
-        <v>1.8076923076923077</v>
-      </c>
-      <c r="W90" s="39">
-        <v>2.1860465116279069</v>
-      </c>
-      <c r="X90" s="39">
-        <v>0.9494949494949495</v>
-      </c>
-      <c r="Y90" s="39">
-        <v>1.5161290322580645</v>
-      </c>
-      <c r="Z90" s="39">
-        <v>2</v>
-      </c>
-      <c r="AA90" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC90" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F91" s="39">
-        <v>1.0851063829787233</v>
-      </c>
-      <c r="G91" s="40">
-        <v>1.2142857142857142</v>
-      </c>
-      <c r="H91" s="39">
-        <v>1.36</v>
-      </c>
-      <c r="I91" s="39">
-        <v>1.9615384615384615</v>
-      </c>
-      <c r="J91" s="39">
-        <v>1.8545454545454545</v>
-      </c>
-      <c r="K91" s="39">
-        <v>1.7</v>
-      </c>
-      <c r="L91" s="39">
-        <v>1.6721311475409837</v>
-      </c>
-      <c r="M91" s="39">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="N91" s="39">
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="O91" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="P91" s="39">
-        <v>1.02</v>
-      </c>
-      <c r="Q91" s="39">
-        <v>0.99029126213592233</v>
-      </c>
-      <c r="R91" s="39">
-        <v>0.97142857142857142</v>
-      </c>
-      <c r="S91" s="39">
-        <v>0.96226415094339623</v>
-      </c>
-      <c r="T91" s="39">
-        <v>0.92727272727272725</v>
-      </c>
-      <c r="U91" s="39">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="V91" s="39">
-        <v>1.5692307692307692</v>
-      </c>
-      <c r="W91" s="39">
-        <v>1.9615384615384615</v>
-      </c>
-      <c r="X91" s="39">
-        <v>2.3720930232558142</v>
-      </c>
-      <c r="Y91" s="39">
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="Z91" s="39">
-        <v>1.6451612903225807</v>
-      </c>
-      <c r="AA91" s="39">
-        <v>2.1702127659574466</v>
-      </c>
-      <c r="AB91" s="39">
-        <v>1</v>
-      </c>
-      <c r="AC91" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F92" s="39">
-        <v>1.0294117647058822</v>
-      </c>
-      <c r="G92" s="40">
-        <v>1.1170212765957446</v>
-      </c>
-      <c r="H92" s="39">
-        <v>1.25</v>
-      </c>
-      <c r="I92" s="39">
-        <v>1.4</v>
-      </c>
-      <c r="J92" s="39">
-        <v>2.0192307692307692</v>
-      </c>
-      <c r="K92" s="39">
-        <v>1.9090909090909092</v>
-      </c>
-      <c r="L92" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="M92" s="39">
-        <v>1.721311475409836</v>
-      </c>
-      <c r="N92" s="39">
-        <v>1.3125</v>
-      </c>
-      <c r="O92" s="39">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="P92" s="39">
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="Q92" s="39">
-        <v>1.05</v>
-      </c>
-      <c r="R92" s="39">
-        <v>1.0194174757281553</v>
-      </c>
-      <c r="S92" s="39">
-        <v>1</v>
-      </c>
-      <c r="T92" s="39">
-        <v>0.99056603773584906</v>
-      </c>
-      <c r="U92" s="39">
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="V92" s="39">
-        <v>1.4583333333333333</v>
-      </c>
-      <c r="W92" s="39">
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="X92" s="39">
-        <v>2.0192307692307692</v>
-      </c>
-      <c r="Y92" s="39">
-        <v>2.441860465116279</v>
-      </c>
-      <c r="Z92" s="39">
-        <v>1.0606060606060606</v>
-      </c>
-      <c r="AA92" s="39">
-        <v>1.6935483870967742</v>
-      </c>
-      <c r="AB92" s="39">
-        <v>2.2340425531914891</v>
-      </c>
-      <c r="AC92" s="39">
-        <v>1</v>
+      <c r="AB92" s="35">
+        <v>1.2340425531914891</v>
+      </c>
+      <c r="AC92" s="35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
